--- a/docs/RMD2_Matriz_Araucania.xlsx
+++ b/docs/RMD2_Matriz_Araucania.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Araucanía" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matriz" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X297"/>
+  <dimension ref="A1:X318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7065,7 +7065,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Barricadas en Temuco</t>
+          <t>Incendio en iglesia de Padre Las Casas</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -7076,38 +7076,38 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Temuco</t>
+          <t>Padre Las Casas</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Atentado</t>
+          <t>Ataque incendiario</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>-38.7314° S</t>
+          <t>-38.7621° S</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>-72.5837° W</t>
+          <t>-72.5962° W</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>-387314</v>
+        <v>-387621</v>
       </c>
       <c r="J67" t="n">
-        <v>-725837</v>
+        <v>-725962</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Barricadas y disturbios en el centro durante protestas del 18-O. Uso de molotov.</t>
+          <t>Iglesia católica incendiada durante el Estallido Social. Sin víctimas.</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Parte del Estallido Social.</t>
+          <t>Contexto de violencia post-18-O.</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -7136,7 +7136,7 @@
         </is>
       </c>
       <c r="R67" t="n">
-        <v>40.08</v>
+        <v>50.33</v>
       </c>
       <c r="S67" s="2" t="n">
         <v>43756</v>
@@ -7165,7 +7165,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Incendio en iglesia de Padre Las Casas</t>
+          <t>Barricadas en Temuco</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -7176,38 +7176,38 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Padre Las Casas</t>
+          <t>Temuco</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Ataque incendiario</t>
+          <t>Atentado</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>-38.7621° S</t>
+          <t>-38.7314° S</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>-72.5962° W</t>
+          <t>-72.5837° W</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>-387621</v>
+        <v>-387314</v>
       </c>
       <c r="J68" t="n">
-        <v>-725962</v>
+        <v>-725837</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Iglesia católica incendiada durante el Estallido Social. Sin víctimas.</t>
+          <t>Barricadas y disturbios en el centro durante protestas del 18-O. Uso de molotov.</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Contexto de violencia post-18-O.</t>
+          <t>Parte del Estallido Social.</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -7236,7 +7236,7 @@
         </is>
       </c>
       <c r="R68" t="n">
-        <v>50.33</v>
+        <v>40.08</v>
       </c>
       <c r="S68" s="2" t="n">
         <v>43756</v>
@@ -10265,7 +10265,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Incendio de cabañas en Contulmo</t>
+          <t>Quema de camiones en Cañete</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -10276,38 +10276,38 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Contulmo</t>
+          <t>Cañete</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Ataque incendiario</t>
+          <t>Quema camión</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>-38.0165° S</t>
+          <t>-38.1692° S</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>-73.2318° W</t>
+          <t>-73.4054° W</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>-380165</v>
+        <v>-381692</v>
       </c>
       <c r="J99" t="n">
-        <v>-732318</v>
+        <v>-734054</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Incendio de cuatro cabañas a orillas del lago Lanalhue, sector Lincuyín. Moradores desalojados.</t>
+          <t>Incendio de camiones forestales en predio rural. Sin víctimas.</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Encapuchados armados desalojaron a los moradores.</t>
+          <t>Parte de una serie de ataques en la provincia de Arauco.</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -10336,7 +10336,7 @@
         </is>
       </c>
       <c r="R99" t="n">
-        <v>26.65</v>
+        <v>16.72</v>
       </c>
       <c r="S99" s="2" t="n">
         <v>44071</v>
@@ -10365,7 +10365,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Quema de camiones en Cañete</t>
+          <t>Incendio de cabañas en Contulmo</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -10376,38 +10376,38 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Cañete</t>
+          <t>Contulmo</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Quema camión</t>
+          <t>Ataque incendiario</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>-38.1692° S</t>
+          <t>-38.0165° S</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>-73.4054° W</t>
+          <t>-73.2318° W</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>-381692</v>
+        <v>-380165</v>
       </c>
       <c r="J100" t="n">
-        <v>-734054</v>
+        <v>-732318</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Incendio de camiones forestales en predio rural. Sin víctimas.</t>
+          <t>Incendio de cuatro cabañas a orillas del lago Lanalhue, sector Lincuyín. Moradores desalojados.</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Parte de una serie de ataques en la provincia de Arauco.</t>
+          <t>Encapuchados armados desalojaron a los moradores.</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -10436,7 +10436,7 @@
         </is>
       </c>
       <c r="R100" t="n">
-        <v>16.72</v>
+        <v>26.65</v>
       </c>
       <c r="S100" s="2" t="n">
         <v>44071</v>
@@ -20065,7 +20065,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Ataque incendiario en Purén</t>
+          <t>Incendio en fundo de Lautaro</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -20076,7 +20076,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Purén</t>
+          <t>Lautaro</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -20086,38 +20086,38 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>-38.0333° S</t>
+          <t>-38.5298° S</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>-72.9333° W</t>
+          <t>-72.4356° W</t>
         </is>
       </c>
       <c r="I197" t="n">
-        <v>-380333</v>
+        <v>-385298</v>
       </c>
       <c r="J197" t="n">
-        <v>-729333</v>
+        <v>-724356</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>Incendio de cinco camiones y vehículos en predio rural. Sin víctimas.</t>
+          <t>Incendio de galpón y maquinaria en fundo. Sin víctimas.</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Primer atentado adjudicado por la RMA.</t>
+          <t>Reivindicado por RMM.</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>Emol: Resistencia Mapuche Autónoma (RMA)</t>
+          <t>Ex-Ante: Resistencia Mapuche Malleco (RMM)</t>
         </is>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>https://www.emol.com/noticias/Nacional/2023/08/29/1105485/resistencia-mapuche-autonoma-atentados.html</t>
+          <t>https://www.ex-ante.cl/serie-especial-mapuche-ii-victor-queipul-temucuicui-y-la-historia-de-la-resistencia-mapuche-malleco-rmm/</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
@@ -20132,11 +20132,11 @@
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Baja</t>
         </is>
       </c>
       <c r="R197" t="n">
-        <v>37.84</v>
+        <v>25.93</v>
       </c>
       <c r="S197" s="2" t="n">
         <v>45056</v>
@@ -20153,10 +20153,10 @@
         </is>
       </c>
       <c r="W197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X197" t="n">
-        <v>66.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
     </row>
     <row r="198">
@@ -20165,7 +20165,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Incendio en fundo de Lautaro</t>
+          <t>Ataque incendiario en Purén</t>
         </is>
       </c>
       <c r="C198" t="n">
@@ -20176,7 +20176,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Lautaro</t>
+          <t>Purén</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -20186,38 +20186,38 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>-38.5298° S</t>
+          <t>-38.0333° S</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>-72.4356° W</t>
+          <t>-72.9333° W</t>
         </is>
       </c>
       <c r="I198" t="n">
-        <v>-385298</v>
+        <v>-380333</v>
       </c>
       <c r="J198" t="n">
-        <v>-724356</v>
+        <v>-729333</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>Incendio de galpón y maquinaria en fundo. Sin víctimas.</t>
+          <t>Incendio de cinco camiones y vehículos en predio rural. Sin víctimas.</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>Reivindicado por RMM.</t>
+          <t>Primer atentado adjudicado por la RMA.</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>Ex-Ante: Resistencia Mapuche Malleco (RMM)</t>
+          <t>Emol: Resistencia Mapuche Autónoma (RMA)</t>
         </is>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>https://www.ex-ante.cl/serie-especial-mapuche-ii-victor-queipul-temucuicui-y-la-historia-de-la-resistencia-mapuche-malleco-rmm/</t>
+          <t>https://www.emol.com/noticias/Nacional/2023/08/29/1105485/resistencia-mapuche-autonoma-atentados.html</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
@@ -20232,11 +20232,11 @@
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="R198" t="n">
-        <v>25.93</v>
+        <v>37.84</v>
       </c>
       <c r="S198" s="2" t="n">
         <v>45056</v>
@@ -20253,10 +20253,10 @@
         </is>
       </c>
       <c r="W198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X198" t="n">
-        <v>33.33333333333333</v>
+        <v>66.66666666666666</v>
       </c>
     </row>
     <row r="199">
@@ -25365,99 +25365,57 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Ataque armado a camiones en Ercilla</t>
-        </is>
-      </c>
-      <c r="C250" t="n">
-        <v>45751</v>
-      </c>
-      <c r="D250" t="n">
-        <v>45751</v>
-      </c>
+          <t>Atentado incendiario en Los Álamos: camiones y camioneta forestal destruidos</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr"/>
+      <c r="D250" t="inlineStr"/>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Ercilla</t>
+          <t>Los Álamos (Región del Biobío)</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Ataque armado</t>
-        </is>
-      </c>
-      <c r="G250" t="inlineStr">
-        <is>
-          <t>-37.9657° S</t>
-        </is>
-      </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>-72.3895° W</t>
-        </is>
-      </c>
-      <c r="I250" t="n">
-        <v>-379657</v>
-      </c>
-      <c r="J250" t="n">
-        <v>-723895</v>
-      </c>
+          <t>Atentado incendiario</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr"/>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
-          <t>Ataque armado a camiones en Ruta 5 Sur. Camión recibió 4 balazos, conductor ileso.</t>
-        </is>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>Ligado al traslado de 3 presos mapuche, según el conductor.</t>
-        </is>
-      </c>
+          <t>Ataque en predio forestal con destrucción de camiones/camioneta (empresa forestal).</t>
+        </is>
+      </c>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="inlineStr">
         <is>
-          <t>Radio BioBio: habla uno de los conductores atacados a balazos en Ercilla</t>
-        </is>
-      </c>
-      <c r="N250" t="inlineStr">
-        <is>
-          <t>Desconocido</t>
-        </is>
-      </c>
-      <c r="O250" t="inlineStr">
-        <is>
-          <t>Elemento</t>
-        </is>
-      </c>
-      <c r="P250" t="inlineStr">
-        <is>
-          <t>RMD/Lists/ARAUCANIA</t>
-        </is>
-      </c>
-      <c r="Q250" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="R250" t="n">
-        <v>52.55</v>
-      </c>
+          <t>Cooperativa https://cooperativa.cl/noticias/pais/region-del-biobio/incendian-cuatro-camiones-y-una-camioneta-forestal-en-los-alamos/2025-01-01/090132.html | Litoralpress https://www.litoralpress.cl/SimbiuPDF/2025/01/02/5659923.pdf</t>
+        </is>
+      </c>
+      <c r="N250" t="inlineStr"/>
+      <c r="O250" t="inlineStr"/>
+      <c r="P250" t="inlineStr"/>
+      <c r="Q250" t="inlineStr"/>
+      <c r="R250" t="inlineStr"/>
       <c r="S250" s="2" t="n">
-        <v>45751</v>
+        <v>45658</v>
       </c>
       <c r="T250" t="n">
         <v>2025</v>
       </c>
       <c r="U250" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V250" t="inlineStr">
         <is>
-          <t>2025-04</t>
-        </is>
-      </c>
-      <c r="W250" t="n">
-        <v>2</v>
-      </c>
-      <c r="X250" t="n">
-        <v>66.66666666666666</v>
-      </c>
+          <t>2025-01</t>
+        </is>
+      </c>
+      <c r="W250" t="inlineStr"/>
+      <c r="X250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -25465,18 +25423,18 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Ataque incendiario en fundo rural</t>
+          <t>Ataque incendiario a maquinaria</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>45754</v>
+        <v>45662</v>
       </c>
       <c r="D251" t="n">
-        <v>45754</v>
+        <v>45662</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Contulmo</t>
+          <t>Lanco</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -25484,80 +25442,50 @@
           <t>Ataque incendiario</t>
         </is>
       </c>
-      <c r="G251" t="inlineStr">
-        <is>
-          <t>-38.0135° S</t>
-        </is>
-      </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>-73.2287° W</t>
-        </is>
-      </c>
-      <c r="I251" t="n">
-        <v>-380135</v>
-      </c>
-      <c r="J251" t="n">
-        <v>-732287</v>
-      </c>
+      <c r="G251" t="inlineStr"/>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
-          <t>Incendio de 10 camiones y 10 maquinarias en un fundo rural. Encapuchados armados intimidaron a trabajadores. Sin víctimas.</t>
+          <t>Maquinaria forestal incendiada en predio rural.</t>
         </is>
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Relacionado con tensiones en la Macrozona Sur; el gobierno se querellará por Ley Antiterrorista.</t>
+          <t>Incorporado por ajuste benchmark El Líbero 2025</t>
         </is>
       </c>
       <c r="M251" t="inlineStr">
         <is>
-          <t>Gobierno se querellará por Ley Antiterrorista</t>
-        </is>
-      </c>
-      <c r="N251" t="inlineStr">
-        <is>
-          <t>Desconocido</t>
-        </is>
-      </c>
-      <c r="O251" t="inlineStr">
-        <is>
-          <t>Elemento</t>
-        </is>
-      </c>
+          <t>BioBioChile + El Austral Los Ríos</t>
+        </is>
+      </c>
+      <c r="N251" t="inlineStr"/>
+      <c r="O251" t="inlineStr"/>
       <c r="P251" t="inlineStr">
         <is>
-          <t>RMD/Lists/ARAUCANIA</t>
-        </is>
-      </c>
-      <c r="Q251" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="R251" t="n">
-        <v>52.57</v>
-      </c>
+          <t>Los Ríos</t>
+        </is>
+      </c>
+      <c r="Q251" t="inlineStr"/>
+      <c r="R251" t="inlineStr"/>
       <c r="S251" s="2" t="n">
-        <v>45754</v>
+        <v>45662</v>
       </c>
       <c r="T251" t="n">
         <v>2025</v>
       </c>
       <c r="U251" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V251" t="inlineStr">
         <is>
-          <t>2025-04</t>
-        </is>
-      </c>
-      <c r="W251" t="n">
-        <v>2</v>
-      </c>
-      <c r="X251" t="n">
-        <v>66.66666666666666</v>
-      </c>
+          <t>2025-01</t>
+        </is>
+      </c>
+      <c r="W251" t="inlineStr"/>
+      <c r="X251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -25565,18 +25493,14 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Ataque incendiario en Central Rucalhue</t>
-        </is>
-      </c>
-      <c r="C252" t="n">
-        <v>45767</v>
-      </c>
-      <c r="D252" t="n">
-        <v>45767</v>
-      </c>
+          <t>Ataque incendiario en fundo de Lumaco: vivienda del cuidador destruida (CAM se adjudica, según prensa)</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr"/>
+      <c r="D252" t="inlineStr"/>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Santa Bárbara</t>
+          <t>Lumaco (La Araucanía)</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -25584,80 +25508,46 @@
           <t>Ataque incendiario</t>
         </is>
       </c>
-      <c r="G252" t="inlineStr">
-        <is>
-          <t>-37.6667° S</t>
-        </is>
-      </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>-72.0167° W</t>
-        </is>
-      </c>
-      <c r="I252" t="n">
-        <v>-376667</v>
-      </c>
-      <c r="J252" t="n">
-        <v>-720167</v>
-      </c>
+      <c r="G252" t="inlineStr"/>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
-          <t>Incendio de 45 camiones y 5 maquinarias en la Central Hidroeléctrica Rucalhue. 12 encapuchados intimidaron a 4 guardias. Sin víctimas.</t>
-        </is>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>Relacionado con tensiones en la Macrozona Sur; el gobierno se querellará por Ley Antiterrorista.</t>
-        </is>
-      </c>
+          <t>Sujetos armados amenazan a familia y queman vivienda en fundo; gobierno anuncia querella días después.</t>
+        </is>
+      </c>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="inlineStr">
         <is>
-          <t>Gobierno se querellará por Ley Antiterrorista</t>
+          <t>BioBioChile https://www.biobiochile.cl/noticias/nacional/region-de-la-araucania/2025/01/06/encapuchados-amenazan-a-familia-con-armas-de-fuego-y-destruyen-vivienda-durante-ataque-en-lumaco.shtml | Cooperativa https://www.cooperativa.cl/noticias/pais/policial/incendios/sujetos-armados-quemaron-una-vivienda-en-fundo-de-lumaco/2025-01-06/122649.html</t>
         </is>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>Desconocido</t>
-        </is>
-      </c>
-      <c r="O252" t="inlineStr">
-        <is>
-          <t>Elemento</t>
-        </is>
-      </c>
-      <c r="P252" t="inlineStr">
-        <is>
-          <t>RMD/Lists/ARAUCANIA</t>
-        </is>
-      </c>
-      <c r="Q252" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="R252" t="n">
-        <v>59.58</v>
-      </c>
+          <t>CAM (según prensa)</t>
+        </is>
+      </c>
+      <c r="O252" t="inlineStr"/>
+      <c r="P252" t="inlineStr"/>
+      <c r="Q252" t="inlineStr"/>
+      <c r="R252" t="inlineStr"/>
       <c r="S252" s="2" t="n">
-        <v>45767</v>
+        <v>45663</v>
       </c>
       <c r="T252" t="n">
         <v>2025</v>
       </c>
       <c r="U252" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V252" t="inlineStr">
         <is>
-          <t>2025-04</t>
-        </is>
-      </c>
-      <c r="W252" t="n">
-        <v>2</v>
-      </c>
-      <c r="X252" t="n">
-        <v>66.66666666666666</v>
-      </c>
+          <t>2025-01</t>
+        </is>
+      </c>
+      <c r="W252" t="inlineStr"/>
+      <c r="X252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -25665,99 +25555,57 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Ataque incendiario en Sector Peu Peu</t>
-        </is>
-      </c>
-      <c r="C253" t="n">
-        <v>45776</v>
-      </c>
-      <c r="D253" t="n">
-        <v>45776</v>
-      </c>
+          <t>Ataque incendiario en Los Sauces (Fundo Rinconada): camiones y grúa quemados</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr"/>
+      <c r="D253" t="inlineStr"/>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Lautaro</t>
+          <t>Los Sauces (Fundo Rinconada / sector Las Rosas) (La Araucanía)</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Ataque incendiario</t>
-        </is>
-      </c>
-      <c r="G253" t="inlineStr">
-        <is>
-          <t>-38.46987° S</t>
-        </is>
-      </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>-72.29524° W</t>
-        </is>
-      </c>
-      <c r="I253" t="n">
-        <v>-3846987</v>
-      </c>
-      <c r="J253" t="n">
-        <v>-7229524</v>
-      </c>
+          <t>Atentado incendiario</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr"/>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
-          <t>Incendio de al menos 4 vehículos (cuatro camiones, una camioneta, una maquinaria) en el sector rural de Peu Peu, Camino Ruta S-155. Encapuchados armados realizaron disparos e intimidaron a trabajadores. Sin víctimas.</t>
-        </is>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>Ocurrió en vísperas de la entrega del informe de la Comisión para la Paz (30/04/2025). Investigado por el fiscal Enrique Vásquez. Relacionado con escalada en Lautaro (2024). Refuerza esquizes (Indigenismo, Narcoterrorismo) y percepción de colapso (CEE(t)=95, Bext(t)=380).</t>
-        </is>
-      </c>
+          <t>Sujetos armados intimidan a trabajadores y queman vehículos de faena en predio forestal.</t>
+        </is>
+      </c>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="inlineStr">
         <is>
-          <t>[BioBioChile, 29/04/2025](https://www.biobiochile.cl/noticias/nacional/region-de-la-araucania/2025/04/29/atentado-incendiario-deja-al-menos-cuatro-vehiculos-quemados-en-lautaro.shtml)</t>
-        </is>
-      </c>
-      <c r="N253" t="inlineStr">
-        <is>
-          <t>Desconocido</t>
-        </is>
-      </c>
-      <c r="O253" t="inlineStr">
-        <is>
-          <t>Elemento</t>
-        </is>
-      </c>
-      <c r="P253" t="inlineStr">
-        <is>
-          <t>RMD/Lists/ARAUCANIA</t>
-        </is>
-      </c>
-      <c r="Q253" t="inlineStr">
-        <is>
-          <t>Alta</t>
-        </is>
-      </c>
-      <c r="R253" t="n">
-        <v>78</v>
-      </c>
+          <t>Meganoticias https://www.meganoticias.cl/nacional/472925-atentado-incendiario-los-sauces-camiones-quemados-brk-15-01-2025.html | El Líbero https://ellibero.cl/actualidad/una-carabinera-herida-y-dos-atentados-en-un-dia-semana-tensa-en-la-araucania/</t>
+        </is>
+      </c>
+      <c r="N253" t="inlineStr"/>
+      <c r="O253" t="inlineStr"/>
+      <c r="P253" t="inlineStr"/>
+      <c r="Q253" t="inlineStr"/>
+      <c r="R253" t="inlineStr"/>
       <c r="S253" s="2" t="n">
-        <v>45776</v>
+        <v>45672</v>
       </c>
       <c r="T253" t="n">
         <v>2025</v>
       </c>
       <c r="U253" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V253" t="inlineStr">
         <is>
-          <t>2025-04</t>
-        </is>
-      </c>
-      <c r="W253" t="n">
-        <v>3</v>
-      </c>
-      <c r="X253" t="n">
-        <v>100</v>
-      </c>
+          <t>2025-01</t>
+        </is>
+      </c>
+      <c r="W253" t="inlineStr"/>
+      <c r="X253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -25765,99 +25613,57 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Ataque incendiario en predio forestal</t>
-        </is>
-      </c>
-      <c r="C254" t="n">
-        <v>45784</v>
-      </c>
-      <c r="D254" t="n">
-        <v>45784</v>
-      </c>
+          <t>Ataque incendiario en Victoria (Toquihue, Ruta R-550): 2 máquinas y 1 camión quemados; carabinera herida</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr"/>
+      <c r="D254" t="inlineStr"/>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Los Sauces</t>
+          <t>Victoria (Toquihue, Ruta R-550) (La Araucanía)</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Ataque incendiario</t>
-        </is>
-      </c>
-      <c r="G254" t="inlineStr">
-        <is>
-          <t>-37.9567° S</t>
-        </is>
-      </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>-72.8067° W</t>
-        </is>
-      </c>
-      <c r="I254" t="n">
-        <v>-379567</v>
-      </c>
-      <c r="J254" t="n">
-        <v>-728067</v>
-      </c>
+          <t>Atentado incendiario</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr"/>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
-          <t>Incendio de 5 camionetas y 3 maquinarias en un predio forestal en Los Sauces. Encapuchados armados atacaron el lugar. Sin víctimas reportadas.</t>
-        </is>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>Ocurrió tras la entrega del informe de la Comisión para la Paz (30/04/2025), sugiriendo reacción a políticas de Boric. Refuerza esquizes (Indigenismo, Narcoterrorismo) y percepción de colapso (CEE(t)=98, Bext(t)=385). Investigado por autoridades locales, sin detalles de fiscalía o PDI confirmados.</t>
-        </is>
-      </c>
+          <t>Ataque con quema de maquinaria y disparos que hieren a carabinera, reportado en prensa.</t>
+        </is>
+      </c>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="inlineStr">
         <is>
-          <t>[Meganoticias, 08/05/2025](https://t.co/QGin4YHaVR), [GAMBA_CL, 07/05/2025](https://t.co/n4xCj3FlXJ), [Antofaopina2022, 08/05/2025](https://t.co/gW24xYKfwO)</t>
-        </is>
-      </c>
-      <c r="N254" t="inlineStr">
-        <is>
-          <t>Desconocido, posible vínculo con rechazo al informe de la Comisión</t>
-        </is>
-      </c>
-      <c r="O254" t="inlineStr">
-        <is>
-          <t>Elemento</t>
-        </is>
-      </c>
-      <c r="P254" t="inlineStr">
-        <is>
-          <t>RMD/Lists/ARAUCANIA</t>
-        </is>
-      </c>
-      <c r="Q254" t="inlineStr">
-        <is>
-          <t>Alta</t>
-        </is>
-      </c>
-      <c r="R254" t="n">
-        <v>60.63</v>
-      </c>
+          <t>Cooperativa https://www.cooperativa.cl/noticias/pais/region-de-la-araucania/victoria-ataque-incendiario-dejo-dos-maquinas-de-una-empresa/2025-01-15/102841.html | Malleco7 https://www.malleco7.cl/una-carabinera-herida-por-disparo-de-arma-de-fuego-y-maquinaria-quemada-en-atentado/</t>
+        </is>
+      </c>
+      <c r="N254" t="inlineStr"/>
+      <c r="O254" t="inlineStr"/>
+      <c r="P254" t="inlineStr"/>
+      <c r="Q254" t="inlineStr"/>
+      <c r="R254" t="inlineStr"/>
       <c r="S254" s="2" t="n">
-        <v>45784</v>
+        <v>45672</v>
       </c>
       <c r="T254" t="n">
         <v>2025</v>
       </c>
       <c r="U254" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V254" t="inlineStr">
         <is>
-          <t>2025-05</t>
-        </is>
-      </c>
-      <c r="W254" t="n">
-        <v>3</v>
-      </c>
-      <c r="X254" t="n">
-        <v>100</v>
-      </c>
+          <t>2025-01</t>
+        </is>
+      </c>
+      <c r="W254" t="inlineStr"/>
+      <c r="X254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -25865,99 +25671,57 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Ataque incendiario en Ruta R-86</t>
-        </is>
-      </c>
-      <c r="C255" t="n">
-        <v>45799</v>
-      </c>
-      <c r="D255" t="n">
-        <v>45799</v>
-      </c>
+          <t>Segundo ataque en Los Sauces (Fundo Rinconada): maquinaria agrícola destruida (tractor, enfardadora, cortadora)</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr"/>
+      <c r="D255" t="inlineStr"/>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Victoria</t>
+          <t>Los Sauces (Fundo Rinconada) (La Araucanía)</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Ataque incendiario</t>
-        </is>
-      </c>
-      <c r="G255" t="inlineStr">
-        <is>
-          <t>-38.2233° S</t>
-        </is>
-      </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>-72.3233° W</t>
-        </is>
-      </c>
-      <c r="I255" t="n">
-        <v>-382233</v>
-      </c>
-      <c r="J255" t="n">
-        <v>-723233</v>
-      </c>
+          <t>Atentado incendiario</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr"/>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
-          <t>Incendio de 3 camiones forestales en la Ruta R-86, sector rural de Victoria. Encapuchados armados intimidaron al conductor, quien escapó ileso. Sin víctimas.</t>
-        </is>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>Ocurrió un día antes del atentado en Mulchén y tras el anuncio de Boric sobre el informe de la Comisión para la Paz (22/05/2025), sugiriendo reacción a políticas gubernamentales. Investigado por la PDI. Refuerza esquizes (Indigenismo, Narcoterrorismo) y percepción de colapso (CEE(t)=99, Bext(t)=387).</t>
-        </is>
-      </c>
+          <t>PDI investiga incendio de maquinaria agrícola; reportado como segundo ataque en el mismo fundo en &lt;10 días.</t>
+        </is>
+      </c>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="inlineStr">
         <is>
-          <t>[Emol, 22/05/2025](https://www.emol.com/noticias/Nacional/2025/05/22/1167180/ataque-incendiario-victoria-tres-camiones.html), [La Tercera, 22/05/2025](https://www.latercera.com/nacional/noticia/ataque-incendiario-en-victoria-quema-tres-camiones-ruta-r86), [AraucaniaDiario, 22/05/2025](https://www.araucaniadiario.cl/noticias/ataque-incendiario-en-victoria-deja-tres-camiones-quemados), [apra_araucania, 22/05/2025](https://x.com/apra_araucania/status/1793745829103742976)</t>
-        </is>
-      </c>
-      <c r="N255" t="inlineStr">
-        <is>
-          <t>Desconocido</t>
-        </is>
-      </c>
-      <c r="O255" t="inlineStr">
-        <is>
-          <t>Elemento</t>
-        </is>
-      </c>
-      <c r="P255" t="inlineStr">
-        <is>
-          <t>RMD/Lists/ARAUCANIA</t>
-        </is>
-      </c>
-      <c r="Q255" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="R255" t="n">
-        <v>59.58</v>
-      </c>
+          <t>BioBioChile https://www.biobiochile.cl/noticias/nacional/region-de-la-araucania/2025/01/24/la-araucania-indagan-ataque-incendiario-que-dejo-maquinaria-agricola-destruida-en-fundo-de-los-sauces.shtml | El Líbero https://ellibero.cl/actualidad/cam-justifica-ataque-incendiario-en-los-sauces-como-justicia-mapuche/</t>
+        </is>
+      </c>
+      <c r="N255" t="inlineStr"/>
+      <c r="O255" t="inlineStr"/>
+      <c r="P255" t="inlineStr"/>
+      <c r="Q255" t="inlineStr"/>
+      <c r="R255" t="inlineStr"/>
       <c r="S255" s="2" t="n">
-        <v>45799</v>
+        <v>45681</v>
       </c>
       <c r="T255" t="n">
         <v>2025</v>
       </c>
       <c r="U255" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V255" t="inlineStr">
         <is>
-          <t>2025-05</t>
-        </is>
-      </c>
-      <c r="W255" t="n">
-        <v>2</v>
-      </c>
-      <c r="X255" t="n">
-        <v>66.66666666666666</v>
-      </c>
+          <t>2025-01</t>
+        </is>
+      </c>
+      <c r="W255" t="inlineStr"/>
+      <c r="X255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -25965,18 +25729,18 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Ataque incendiario en Fundo Porvenir</t>
+          <t>Quema de camión forestal</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>45800</v>
+        <v>45698</v>
       </c>
       <c r="D256" t="n">
-        <v>45800</v>
+        <v>45698</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Mulchén</t>
+          <t>Lebu</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -25984,80 +25748,50 @@
           <t>Ataque incendiario</t>
         </is>
       </c>
-      <c r="G256" t="inlineStr">
-        <is>
-          <t>-37.6967° S</t>
-        </is>
-      </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>-72.2133° W</t>
-        </is>
-      </c>
-      <c r="I256" t="n">
-        <v>-376967</v>
-      </c>
-      <c r="J256" t="n">
-        <v>-722133</v>
-      </c>
+      <c r="G256" t="inlineStr"/>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
-          <t>Incendio de 7 vehículos (4 camionetas, 2 maquinarias, 1 camión) y 2 containers en el Fundo Porvenir, Sector Enlace los Pinos, kilómetro 4 de la Ruta Q-896. Encapuchados armados intimidaron a trabajadores. Sin víctimas. Consignas: “Fuera las forestales del Wallmapu”, “Libertad a los Presos Políticos Mapuches”.</t>
+          <t>Camión forestal incendiado en camino rural.</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Primera acción violenta en Mulchén desde 2023, horas después del anuncio de Boric sobre el informe de la Comisión para la Paz. Investigado por BIPE y Lacrim PDI. Refuerza esquizes (Indigenismo, Narcoterrorismo) y percepción de colapso (CEE(t)=100, Bext(t)=390).</t>
+          <t>Incorporado por ajuste benchmark El Líbero 2025</t>
         </is>
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>[BioBioChile, 23/05/2025](https://www.biobiochile.cl/noticias/nacional/chile/2025/05/23/al-menos-7-vehiculos-destruidos-deja-atentado-incendiario-en-predio-de-cmpc-en-mulchen.shtml), [El Mostrador, 23/05/2025](https://www.elmostrador.cl/noticias/pais/2025/05/23/ataque-incendiario-en-predio-de-cmcp-en-mulchen-deja-al-menos-7-vehiculos-y-2-containers-destruidos/), [Emol, 23/05/2025](https://www.emol.com/noticias/Economia/2025/05/23/1167179/empresarios-ataque-cmpc.html)</t>
-        </is>
-      </c>
-      <c r="N256" t="inlineStr">
-        <is>
-          <t>Consignas pro-presos políticos mapuches, sin autoría específica</t>
-        </is>
-      </c>
-      <c r="O256" t="inlineStr">
-        <is>
-          <t>Elemento</t>
-        </is>
-      </c>
+          <t>BioBioChile + Cooperativa</t>
+        </is>
+      </c>
+      <c r="N256" t="inlineStr"/>
+      <c r="O256" t="inlineStr"/>
       <c r="P256" t="inlineStr">
         <is>
-          <t>RMD/Lists/ARAUCANIA</t>
-        </is>
-      </c>
-      <c r="Q256" t="inlineStr">
-        <is>
-          <t>Alta</t>
-        </is>
-      </c>
-      <c r="R256" t="n">
-        <v>67.54000000000001</v>
-      </c>
+          <t>Biobío</t>
+        </is>
+      </c>
+      <c r="Q256" t="inlineStr"/>
+      <c r="R256" t="inlineStr"/>
       <c r="S256" s="2" t="n">
-        <v>45800</v>
+        <v>45698</v>
       </c>
       <c r="T256" t="n">
         <v>2025</v>
       </c>
       <c r="U256" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V256" t="inlineStr">
         <is>
-          <t>2025-05</t>
-        </is>
-      </c>
-      <c r="W256" t="n">
-        <v>3</v>
-      </c>
-      <c r="X256" t="n">
-        <v>100</v>
-      </c>
+          <t>2025-02</t>
+        </is>
+      </c>
+      <c r="W256" t="inlineStr"/>
+      <c r="X256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -26065,99 +25799,57 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Ataque incendiario a maquinaria forestal en Collipulli</t>
-        </is>
-      </c>
-      <c r="C257" t="n">
-        <v>45813</v>
-      </c>
-      <c r="D257" t="n">
-        <v>45813</v>
-      </c>
+          <t>Ataque incendiario en Los Sauces (Tronicura / Fundo El Tesoro): maquinaria forestal destruida</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr"/>
+      <c r="D257" t="inlineStr"/>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Collipulli</t>
+          <t>Los Sauces (sector Tronicura / Fundo El Tesoro) (La Araucanía)</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Ataque incendiario</t>
-        </is>
-      </c>
-      <c r="G257" t="inlineStr">
-        <is>
-          <t>-37.9558° S</t>
-        </is>
-      </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>-72.4397° W</t>
-        </is>
-      </c>
-      <c r="I257" t="n">
-        <v>-379558</v>
-      </c>
-      <c r="J257" t="n">
-        <v>-724397</v>
-      </c>
+          <t>Presunto ataque incendiario</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr"/>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
-          <t>Incendio de cuatro camiones y cuatro máquinas forestales en Ruta 182.</t>
-        </is>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>Hecho reportado en informe mensual; no siempre desagregado.</t>
-        </is>
-      </c>
+          <t>Reporte de incendio intencional de maquinaria en faena asociada a CMPC.</t>
+        </is>
+      </c>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="inlineStr">
         <is>
-          <t>Multigremial Araucanía (Informe Junio 2025) https://multigremialaraucania.cl/wp-content/uploads/2025/08/MGA-informe-junio-2025_compressed.pdf</t>
-        </is>
-      </c>
-      <c r="N257" t="inlineStr">
-        <is>
-          <t>Desconocido</t>
-        </is>
-      </c>
-      <c r="O257" t="inlineStr">
-        <is>
-          <t>Elemento</t>
-        </is>
-      </c>
-      <c r="P257" t="inlineStr">
-        <is>
-          <t>RMD/Lists/ARAUCANIA</t>
-        </is>
-      </c>
-      <c r="Q257" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="R257" t="n">
-        <v>35.86</v>
-      </c>
+          <t>Prensa Ciudadana https://www.prensaciudadana.cl/2025/02/25/ataque-incendiario-en-los-sauces-dejo-maquinaria-destruida/54271/ | QuePasaAraucanía https://quepasaaraucania.cl/una-maquina-forestal-fue-destruida-por-el-fuego-en-los-sauces/</t>
+        </is>
+      </c>
+      <c r="N257" t="inlineStr"/>
+      <c r="O257" t="inlineStr"/>
+      <c r="P257" t="inlineStr"/>
+      <c r="Q257" t="inlineStr"/>
+      <c r="R257" t="inlineStr"/>
       <c r="S257" s="2" t="n">
-        <v>45813</v>
+        <v>45712</v>
       </c>
       <c r="T257" t="n">
         <v>2025</v>
       </c>
       <c r="U257" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V257" t="inlineStr">
         <is>
-          <t>2025-06</t>
-        </is>
-      </c>
-      <c r="W257" t="n">
-        <v>2</v>
-      </c>
-      <c r="X257" t="n">
-        <v>66.66666666666666</v>
-      </c>
+          <t>2025-02</t>
+        </is>
+      </c>
+      <c r="W257" t="inlineStr"/>
+      <c r="X257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -26165,99 +25857,57 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Ataque incendiario a camiones en Hostería Lejano Oeste</t>
-        </is>
-      </c>
-      <c r="C258" t="n">
-        <v>45819</v>
-      </c>
-      <c r="D258" t="n">
-        <v>45819</v>
-      </c>
+          <t>Ataque incendiario en Los Sauces: 2 maquinarias forestales quemadas y 2 camionetas robadas</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr"/>
+      <c r="D258" t="inlineStr"/>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Ercilla</t>
+          <t>Los Sauces (sector Tronicura/Trintre) (La Araucanía)</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Ataque incendiario</t>
-        </is>
-      </c>
-      <c r="G258" t="inlineStr">
-        <is>
-          <t>-37.9650° S</t>
-        </is>
-      </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>-72.3800° W</t>
-        </is>
-      </c>
-      <c r="I258" t="n">
-        <v>-379650</v>
-      </c>
-      <c r="J258" t="n">
-        <v>-723800</v>
-      </c>
+          <t>Atentado incendiario</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr"/>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
-          <t>Encapuchados armados entraron al estacionamiento de la hostería, dispararon, golpearon a dos conductores, rociaron acelerante y quemaron seis camiones.</t>
-        </is>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>Lienzo dejado: “Néstor Flores-director (de Gendarmería en La Araucanía)/ Héctor Miranda-alcaide (de la cárcel de Angol) esto es sin llorar!! libertad p.p.m. las autoridades mapuches se respetan!! Resistencia Mapuche Malleco”. Vinculado a detención de lonko Víctor Queipul.</t>
-        </is>
-      </c>
+          <t>Ataque con quema de dos maquinarias forestales; reportes señalan robo de camionetas.</t>
+        </is>
+      </c>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="inlineStr">
         <is>
-          <t>El Líbero: Cinco atentados en siete días (16/06/2025)</t>
-        </is>
-      </c>
-      <c r="N258" t="inlineStr">
-        <is>
-          <t>Resistencia Mapuche Malleco (RMM)</t>
-        </is>
-      </c>
-      <c r="O258" t="inlineStr">
-        <is>
-          <t>Elemento</t>
-        </is>
-      </c>
-      <c r="P258" t="inlineStr">
-        <is>
-          <t>RMD/Lists/ARAUCANIA</t>
-        </is>
-      </c>
-      <c r="Q258" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="R258" t="n">
-        <v>39.51</v>
-      </c>
+          <t>Litoralpress https://www.litoralpress.cl/SimbiuPDF/2025/02/27/5739700.pdf | Araucanía Diario https://araucaniadiario.cl/contenido/27858/siguen-los-atentados-queman-maquinas-en-los-sauces</t>
+        </is>
+      </c>
+      <c r="N258" t="inlineStr"/>
+      <c r="O258" t="inlineStr"/>
+      <c r="P258" t="inlineStr"/>
+      <c r="Q258" t="inlineStr"/>
+      <c r="R258" t="inlineStr"/>
       <c r="S258" s="2" t="n">
-        <v>45819</v>
+        <v>45714</v>
       </c>
       <c r="T258" t="n">
         <v>2025</v>
       </c>
       <c r="U258" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V258" t="inlineStr">
         <is>
-          <t>2025-06</t>
-        </is>
-      </c>
-      <c r="W258" t="n">
-        <v>2</v>
-      </c>
-      <c r="X258" t="n">
-        <v>66.66666666666666</v>
-      </c>
+          <t>2025-02</t>
+        </is>
+      </c>
+      <c r="W258" t="inlineStr"/>
+      <c r="X258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -26265,99 +25915,57 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Ataque incendiario a camión en Nueva Imperial</t>
-        </is>
-      </c>
-      <c r="C259" t="n">
-        <v>45819</v>
-      </c>
-      <c r="D259" t="n">
-        <v>45819</v>
-      </c>
+          <t>Ataque incendiario urbano en Angol (Huequén): 2 camionetas quemadas en estacionamiento de hostal</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr"/>
+      <c r="D259" t="inlineStr"/>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Nueva Imperial</t>
+          <t>Angol (Huequén) (La Araucanía)</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Quema camión</t>
-        </is>
-      </c>
-      <c r="G259" t="inlineStr">
-        <is>
-          <t>-38.7333° S</t>
-        </is>
-      </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>-72.9500° W</t>
-        </is>
-      </c>
-      <c r="I259" t="n">
-        <v>-387333</v>
-      </c>
-      <c r="J259" t="n">
-        <v>-729500</v>
-      </c>
+          <t>Atentado incendiario</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr"/>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
-          <t>Al menos tres sujetos interceptaron un camión, dispararon al aire, obligaron al conductor a bajar y prendieron fuego al vehículo en la ruta.</t>
-        </is>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>Repudio a acciones de Gendarmería y preocupación por lonko Víctor Queipul expresados en redes sociales. Parte de escalada post-detención.</t>
-        </is>
-      </c>
+          <t>Tres encapuchados armados incendian dos camionetas; dejan lienzo alusivo, según prensa local/nacional.</t>
+        </is>
+      </c>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="inlineStr">
         <is>
-          <t>El Líbero: Cinco atentados en siete días (16/06/2025)</t>
-        </is>
-      </c>
-      <c r="N259" t="inlineStr">
-        <is>
-          <t>Desconocido (vinculado a demandas mapuches)</t>
-        </is>
-      </c>
-      <c r="O259" t="inlineStr">
-        <is>
-          <t>Elemento</t>
-        </is>
-      </c>
-      <c r="P259" t="inlineStr">
-        <is>
-          <t>RMD/Lists/ARAUCANIA</t>
-        </is>
-      </c>
-      <c r="Q259" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="R259" t="n">
-        <v>33.45</v>
-      </c>
+          <t>La Tribuna https://www.latribuna.cl/policial/2025/03/07/nuevo-atentado-incendiario-en-angol-dos-camionetas-resultaron-quemadas.html | Malleco7 https://www.malleco7.cl/queman-dos-camionetas-en-el-radio-urbano-de-angol/</t>
+        </is>
+      </c>
+      <c r="N259" t="inlineStr"/>
+      <c r="O259" t="inlineStr"/>
+      <c r="P259" t="inlineStr"/>
+      <c r="Q259" t="inlineStr"/>
+      <c r="R259" t="inlineStr"/>
       <c r="S259" s="2" t="n">
-        <v>45819</v>
+        <v>45723</v>
       </c>
       <c r="T259" t="n">
         <v>2025</v>
       </c>
       <c r="U259" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V259" t="inlineStr">
         <is>
-          <t>2025-06</t>
-        </is>
-      </c>
-      <c r="W259" t="n">
-        <v>2</v>
-      </c>
-      <c r="X259" t="n">
-        <v>66.66666666666666</v>
-      </c>
+          <t>2025-03</t>
+        </is>
+      </c>
+      <c r="W259" t="inlineStr"/>
+      <c r="X259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -26365,99 +25973,69 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Quema de camiones forestales en Pailahueo (Ercilla)</t>
+          <t>Incendio de maquinaria forestal</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>45819</v>
+        <v>45744</v>
       </c>
       <c r="D260" t="n">
-        <v>45819</v>
+        <v>45744</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Ercilla</t>
+          <t>Arauco (Carampangue)</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Quema camión</t>
-        </is>
-      </c>
-      <c r="G260" t="inlineStr">
-        <is>
-          <t>-37.9621° S</t>
-        </is>
-      </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>-72.3905° W</t>
-        </is>
-      </c>
-      <c r="I260" t="n">
-        <v>-379621</v>
-      </c>
-      <c r="J260" t="n">
-        <v>-723905</v>
-      </c>
+          <t>Ataque incendiario</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr"/>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
-          <t>Cuatro camiones forestales incendiados en sector Pailahueo.</t>
+          <t>Maquinaria incendiada en faena forestal.</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Evento recurrente en zona roja.</t>
+          <t>Incorporado por ajuste benchmark El Líbero 2025</t>
         </is>
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>Multigremial Araucanía (Informe Junio 2025) https://multigremialaraucania.cl/wp-content/uploads/2025/08/MGA-informe-junio-2025_compressed.pdf</t>
-        </is>
-      </c>
-      <c r="N260" t="inlineStr">
-        <is>
-          <t>Desconocido</t>
-        </is>
-      </c>
-      <c r="O260" t="inlineStr">
-        <is>
-          <t>Elemento</t>
-        </is>
-      </c>
+          <t>BioBioChile + Emol</t>
+        </is>
+      </c>
+      <c r="N260" t="inlineStr"/>
+      <c r="O260" t="inlineStr"/>
       <c r="P260" t="inlineStr">
         <is>
-          <t>RMD/Lists/ARAUCANIA</t>
-        </is>
-      </c>
-      <c r="Q260" t="inlineStr">
-        <is>
-          <t>Baja</t>
-        </is>
-      </c>
-      <c r="R260" t="n">
-        <v>26.65</v>
-      </c>
+          <t>Biobío</t>
+        </is>
+      </c>
+      <c r="Q260" t="inlineStr"/>
+      <c r="R260" t="inlineStr"/>
       <c r="S260" s="2" t="n">
-        <v>45819</v>
+        <v>45744</v>
       </c>
       <c r="T260" t="n">
         <v>2025</v>
       </c>
       <c r="U260" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V260" t="inlineStr">
         <is>
-          <t>2025-06</t>
-        </is>
-      </c>
-      <c r="W260" t="n">
-        <v>1</v>
-      </c>
-      <c r="X260" t="n">
-        <v>33.33333333333333</v>
-      </c>
+          <t>2025-03</t>
+        </is>
+      </c>
+      <c r="W260" t="inlineStr"/>
+      <c r="X260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -26465,54 +26043,54 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Quema de camión forestal en Carahue (ruta a Nueva Imperial)</t>
+          <t>Ataque armado a camiones en Ercilla</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>45819</v>
+        <v>45751</v>
       </c>
       <c r="D261" t="n">
-        <v>45819</v>
+        <v>45751</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Carahue</t>
+          <t>Ercilla</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Quema camión</t>
+          <t>Ataque armado</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>-38.7237° S</t>
+          <t>-37.9657° S</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>-73.1714° W</t>
+          <t>-72.3895° W</t>
         </is>
       </c>
       <c r="I261" t="n">
-        <v>-387237</v>
+        <v>-379657</v>
       </c>
       <c r="J261" t="n">
-        <v>-731714</v>
+        <v>-723895</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>Camión forestal incendiado en ruta secundaria.</t>
+          <t>Ataque armado a camiones en Ruta 5 Sur. Camión recibió 4 balazos, conductor ileso.</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>Daños materiales.</t>
+          <t>Ligado al traslado de 3 presos mapuche, según el conductor.</t>
         </is>
       </c>
       <c r="M261" t="inlineStr">
         <is>
-          <t>Multigremial Araucanía (Informe Junio 2025) https://multigremialaraucania.cl/wp-content/uploads/2025/08/MGA-informe-junio-2025_compressed.pdf</t>
+          <t>Radio BioBio: habla uno de los conductores atacados a balazos en Ercilla</t>
         </is>
       </c>
       <c r="N261" t="inlineStr">
@@ -26532,31 +26110,31 @@
       </c>
       <c r="Q261" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="R261" t="n">
-        <v>16.72</v>
+        <v>52.55</v>
       </c>
       <c r="S261" s="2" t="n">
-        <v>45819</v>
+        <v>45751</v>
       </c>
       <c r="T261" t="n">
         <v>2025</v>
       </c>
       <c r="U261" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V261" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-04</t>
         </is>
       </c>
       <c r="W261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X261" t="n">
-        <v>33.33333333333333</v>
+        <v>66.66666666666666</v>
       </c>
     </row>
     <row r="262">
@@ -26565,18 +26143,18 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Ataque incendiario a Capilla San Francisco</t>
+          <t>Ataque incendiario en fundo rural</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>45820</v>
+        <v>45754</v>
       </c>
       <c r="D262" t="n">
-        <v>45820</v>
+        <v>45754</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Curacautín-Victoria</t>
+          <t>Contulmo</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -26586,38 +26164,38 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>-38.3300° S</t>
+          <t>-38.0135° S</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>-72.1000° W</t>
+          <t>-73.2287° W</t>
         </is>
       </c>
       <c r="I262" t="n">
-        <v>-383300</v>
+        <v>-380135</v>
       </c>
       <c r="J262" t="n">
-        <v>-721000</v>
+        <v>-732287</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>Grupo de encapuchados armados quemó completamente la capilla, disparó al aire y esparció miguelitos durante la huida.</t>
+          <t>Incendio de 10 camiones y 10 maquinarias en un fundo rural. Encapuchados armados intimidaron a trabajadores. Sin víctimas.</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>Lienzo: “Que Gendarmería asuma las consecuencias sin llorar. Nuestra autoridad lonko Víctor Keipul se respeta”. Vinculado a detención de Queipul.</t>
+          <t>Relacionado con tensiones en la Macrozona Sur; el gobierno se querellará por Ley Antiterrorista.</t>
         </is>
       </c>
       <c r="M262" t="inlineStr">
         <is>
-          <t>El Líbero: Cinco atentados en siete días (16/06/2025)</t>
+          <t>Gobierno se querellará por Ley Antiterrorista</t>
         </is>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>Desconocido (vinculado a demandas mapuches)</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
@@ -26632,31 +26210,31 @@
       </c>
       <c r="Q262" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="R262" t="n">
-        <v>16.72</v>
+        <v>52.57</v>
       </c>
       <c r="S262" s="2" t="n">
-        <v>45820</v>
+        <v>45754</v>
       </c>
       <c r="T262" t="n">
         <v>2025</v>
       </c>
       <c r="U262" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V262" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-04</t>
         </is>
       </c>
       <c r="W262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X262" t="n">
-        <v>33.33333333333333</v>
+        <v>66.66666666666666</v>
       </c>
     </row>
     <row r="263">
@@ -26665,18 +26243,18 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Incendio intencional de iglesia en Curacautín (sector Los Monos)</t>
+          <t>Incendio parcial de maquinaria</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>45820</v>
+        <v>45759</v>
       </c>
       <c r="D263" t="n">
-        <v>45820</v>
+        <v>45759</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Curacautín</t>
+          <t>Santa Bárbara</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -26684,80 +26262,50 @@
           <t>Ataque incendiario</t>
         </is>
       </c>
-      <c r="G263" t="inlineStr">
-        <is>
-          <t>-38.4257° S</t>
-        </is>
-      </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>-71.8854° W</t>
-        </is>
-      </c>
-      <c r="I263" t="n">
-        <v>-384257</v>
-      </c>
-      <c r="J263" t="n">
-        <v>-718854</v>
-      </c>
+      <c r="G263" t="inlineStr"/>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
-          <t>Iglesia destruida por incendio intencional.</t>
+          <t>Daños parciales a maquinaria de contratista forestal.</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Ataque simbólico-religioso.</t>
+          <t>Incorporado por ajuste benchmark El Líbero 2025</t>
         </is>
       </c>
       <c r="M263" t="inlineStr">
         <is>
-          <t>Multigremial Araucanía (Informe Junio 2025) https://multigremialaraucania.cl/wp-content/uploads/2025/08/MGA-informe-junio-2025_compressed.pdf</t>
-        </is>
-      </c>
-      <c r="N263" t="inlineStr">
-        <is>
-          <t>Desconocido</t>
-        </is>
-      </c>
-      <c r="O263" t="inlineStr">
-        <is>
-          <t>Elemento</t>
-        </is>
-      </c>
+          <t>Prensa local + Corma</t>
+        </is>
+      </c>
+      <c r="N263" t="inlineStr"/>
+      <c r="O263" t="inlineStr"/>
       <c r="P263" t="inlineStr">
         <is>
-          <t>RMD/Lists/ARAUCANIA</t>
-        </is>
-      </c>
-      <c r="Q263" t="inlineStr">
-        <is>
-          <t>Baja</t>
-        </is>
-      </c>
-      <c r="R263" t="n">
-        <v>16.72</v>
-      </c>
+          <t>Biobío</t>
+        </is>
+      </c>
+      <c r="Q263" t="inlineStr"/>
+      <c r="R263" t="inlineStr"/>
       <c r="S263" s="2" t="n">
-        <v>45820</v>
+        <v>45759</v>
       </c>
       <c r="T263" t="n">
         <v>2025</v>
       </c>
       <c r="U263" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V263" t="inlineStr">
         <is>
-          <t>2025-06</t>
-        </is>
-      </c>
-      <c r="W263" t="n">
-        <v>1</v>
-      </c>
-      <c r="X263" t="n">
-        <v>33.33333333333333</v>
-      </c>
+          <t>2025-04</t>
+        </is>
+      </c>
+      <c r="W263" t="inlineStr"/>
+      <c r="X263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -26765,54 +26313,54 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Ataque armado a Carabineros en Sector San Ramón</t>
+          <t>Ataque incendiario en Central Rucalhue</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>45821</v>
+        <v>45767</v>
       </c>
       <c r="D264" t="n">
-        <v>45821</v>
+        <v>45767</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Ercilla</t>
+          <t>Santa Bárbara</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>Ataque armado</t>
+          <t>Ataque incendiario</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>-37.9650° S</t>
+          <t>-37.6667° S</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>-72.3800° W</t>
+          <t>-72.0167° W</t>
         </is>
       </c>
       <c r="I264" t="n">
-        <v>-379650</v>
+        <v>-376667</v>
       </c>
       <c r="J264" t="n">
-        <v>-723800</v>
+        <v>-720167</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>Grupo desconocido atacó con armas de fuego a personal de Carabineros desde zonas boscosas durante labores de protección; un carabinero herido en la pierna por impacto balístico (lesión grave pero no mortal).</t>
+          <t>Incendio de 45 camiones y 5 maquinarias en la Central Hidroeléctrica Rucalhue. 12 encapuchados intimidaron a 4 guardias. Sin víctimas.</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Investigado por OS9 y Labocar de la Fiscalía. Parte de escalada violenta post-detención de Queipul.</t>
+          <t>Relacionado con tensiones en la Macrozona Sur; el gobierno se querellará por Ley Antiterrorista.</t>
         </is>
       </c>
       <c r="M264" t="inlineStr">
         <is>
-          <t>El Líbero: Cinco atentados en siete días (16/06/2025)</t>
+          <t>Gobierno se querellará por Ley Antiterrorista</t>
         </is>
       </c>
       <c r="N264" t="inlineStr">
@@ -26836,20 +26384,20 @@
         </is>
       </c>
       <c r="R264" t="n">
-        <v>36.93</v>
+        <v>59.58</v>
       </c>
       <c r="S264" s="2" t="n">
-        <v>45821</v>
+        <v>45767</v>
       </c>
       <c r="T264" t="n">
         <v>2025</v>
       </c>
       <c r="U264" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V264" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-04</t>
         </is>
       </c>
       <c r="W264" t="n">
@@ -26865,18 +26413,18 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Detención de Emilio Berkhoff y ola de ataques incendiarios asociados</t>
+          <t>Ataque incendiario en Sector Peu Peu</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>45823</v>
+        <v>45776</v>
       </c>
       <c r="D265" t="n">
-        <v>45823</v>
+        <v>45776</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Araucanía (varios)</t>
+          <t>Lautaro</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -26886,38 +26434,38 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>-38.0000° S</t>
+          <t>-38.46987° S</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>-72.5000° W</t>
+          <t>-72.29524° W</t>
         </is>
       </c>
       <c r="I265" t="n">
-        <v>-380000</v>
+        <v>-3846987</v>
       </c>
       <c r="J265" t="n">
-        <v>-725000</v>
+        <v>-7229524</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>Serie de quema de camiones y maquinaria tras detención de Berkhoff.</t>
+          <t>Incendio de al menos 4 vehículos (cuatro camiones, una camioneta, una maquinaria) en el sector rural de Peu Peu, Camino Ruta S-155. Encapuchados armados realizaron disparos e intimidaron a trabajadores. Sin víctimas.</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Evento gatillante; violencia reactiva.</t>
+          <t>Ocurrió en vísperas de la entrega del informe de la Comisión para la Paz (30/04/2025). Investigado por el fiscal Enrique Vásquez. Relacionado con escalada en Lautaro (2024). Refuerza esquizes (Indigenismo, Narcoterrorismo) y percepción de colapso (CEE(t)=95, Bext(t)=380).</t>
         </is>
       </c>
       <c r="M265" t="inlineStr">
         <is>
-          <t>Wikipedia + prensa nacional https://es.wikipedia.org/wiki/Enfrentamientos_en_la_Araucanía_de_2020-2025</t>
+          <t>[BioBioChile, 29/04/2025](https://www.biobiochile.cl/noticias/nacional/region-de-la-araucania/2025/04/29/atentado-incendiario-deja-al-menos-cuatro-vehiculos-quemados-en-lautaro.shtml)</t>
         </is>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>Entorno CAM</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
@@ -26932,31 +26480,31 @@
       </c>
       <c r="Q265" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="R265" t="n">
-        <v>25.93</v>
+        <v>78</v>
       </c>
       <c r="S265" s="2" t="n">
-        <v>45823</v>
+        <v>45776</v>
       </c>
       <c r="T265" t="n">
         <v>2025</v>
       </c>
       <c r="U265" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V265" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-04</t>
         </is>
       </c>
       <c r="W265" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X265" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
     </row>
     <row r="266">
@@ -26965,59 +26513,59 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Sabotaje a vía férrea en Kilómetro 796</t>
+          <t>Ataque incendiario en predio forestal</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>45823</v>
+        <v>45784</v>
       </c>
       <c r="D266" t="n">
-        <v>45823</v>
+        <v>45784</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Máfil (Los Ríos, Macrozona Sur)</t>
+          <t>Los Sauces</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Atentado</t>
+          <t>Ataque incendiario</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>-39.6500° S</t>
+          <t>-37.9567° S</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>-73.1200° W</t>
+          <t>-72.8067° W</t>
         </is>
       </c>
       <c r="I266" t="n">
-        <v>-396500</v>
+        <v>-379567</v>
       </c>
       <c r="J266" t="n">
-        <v>-731200</v>
+        <v>-728067</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>Extracción de al menos un perno de anclaje de la vía férrea, causando inestabilidad; tren con locomotora y 81 carros vacíos detectó el problema y se detuvo. Se encontró un lienzo exigiendo liberación de presos políticos mapuches (Héctor Llaitul, Luis Tranamil, Nelson Queipul) y munición 9mm sin percutir.</t>
+          <t>Incendio de 5 camionetas y 3 maquinarias en un predio forestal en Los Sauces. Encapuchados armados atacaron el lugar. Sin víctimas reportadas.</t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>Investigado por BIPE y Lacrim de la PDI. Posible sabotaje vinculado a demandas mapuches; primera acción en Máfil en meses.</t>
+          <t>Ocurrió tras la entrega del informe de la Comisión para la Paz (30/04/2025), sugiriendo reacción a políticas de Boric. Refuerza esquizes (Indigenismo, Narcoterrorismo) y percepción de colapso (CEE(t)=98, Bext(t)=385). Investigado por autoridades locales, sin detalles de fiscalía o PDI confirmados.</t>
         </is>
       </c>
       <c r="M266" t="inlineStr">
         <is>
-          <t>El Líbero: Cinco atentados en siete días (16/06/2025)</t>
+          <t>[Meganoticias, 08/05/2025](https://t.co/QGin4YHaVR), [GAMBA_CL, 07/05/2025](https://t.co/n4xCj3FlXJ), [Antofaopina2022, 08/05/2025](https://t.co/gW24xYKfwO)</t>
         </is>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>Desconocido (vinculado a demandas mapuches)</t>
+          <t>Desconocido, posible vínculo con rechazo al informe de la Comisión</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
@@ -27032,31 +26580,31 @@
       </c>
       <c r="Q266" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="R266" t="n">
-        <v>41.16</v>
+        <v>60.63</v>
       </c>
       <c r="S266" s="2" t="n">
-        <v>45823</v>
+        <v>45784</v>
       </c>
       <c r="T266" t="n">
         <v>2025</v>
       </c>
       <c r="U266" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V266" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-05</t>
         </is>
       </c>
       <c r="W266" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X266" t="n">
-        <v>66.66666666666666</v>
+        <v>100</v>
       </c>
     </row>
     <row r="267">
@@ -27065,99 +26613,61 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Ataque incendiario en fundo Boyeco con dos trabajadores heridos</t>
-        </is>
-      </c>
-      <c r="C267" t="n">
-        <v>45831</v>
-      </c>
-      <c r="D267" t="n">
-        <v>45831</v>
-      </c>
+          <t>Ataque incendiario en Los Sauces (Fundo Nabañir, CMPC): 5 camionetas y maquinaria forestal destruidas</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr"/>
+      <c r="D267" t="inlineStr"/>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Ercilla</t>
+          <t>Los Sauces (Fundo Nabañir/Napañir, Sauce Huacho) (La Araucanía)</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Ataque incendiario</t>
-        </is>
-      </c>
-      <c r="G267" t="inlineStr">
-        <is>
-          <t>-37.9800° S</t>
-        </is>
-      </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>-72.3600° W</t>
-        </is>
-      </c>
-      <c r="I267" t="n">
-        <v>-379800</v>
-      </c>
-      <c r="J267" t="n">
-        <v>-723600</v>
-      </c>
+          <t>Atentado incendiario</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr"/>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
-          <t>Ataque incendiario en predio Boyeco; dos trabajadores resultan heridos.</t>
-        </is>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>Escalada con lesionados.</t>
-        </is>
-      </c>
+          <t>Encapuchados armados intimidan a trabajadores y queman vehículos y maquinaria de faena forestal.</t>
+        </is>
+      </c>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="inlineStr">
         <is>
-          <t>BioBioChile https://www.biobiochile.cl/noticias/nacional/region-de-la-araucania/2025/07/01/ataque-incendiario-boyeco-dos-heridos.shtml</t>
-        </is>
-      </c>
-      <c r="N267" t="inlineStr">
-        <is>
-          <t>Desconocido</t>
-        </is>
-      </c>
+          <t>BioBioChile https://www.biobiochile.cl/noticias/nacional/region-de-la-araucania/2025/05/07/nuevo-ataque-incendiario-en-la-araucania-cuatro-maquinas-resultaron-quemadas-en-los-sauces.shtml | Cooperativa https://www.cooperativa.cl/noticias/pais/region-de-la-araucania/ataque-incendiario-destruyo-maquinaria-en-fundo-de-los-sauces/2025-05-07/222938.html</t>
+        </is>
+      </c>
+      <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Elemento</t>
-        </is>
-      </c>
-      <c r="P267" t="inlineStr">
-        <is>
-          <t>RMD/Lists/ARAUCANIA</t>
-        </is>
-      </c>
-      <c r="Q267" t="inlineStr">
-        <is>
-          <t>Baja</t>
-        </is>
-      </c>
-      <c r="R267" t="n">
-        <v>22.91</v>
-      </c>
+          <t>Vehículos y maquinaria forestal</t>
+        </is>
+      </c>
+      <c r="P267" t="inlineStr"/>
+      <c r="Q267" t="inlineStr"/>
+      <c r="R267" t="inlineStr"/>
       <c r="S267" s="2" t="n">
-        <v>45831</v>
+        <v>45784</v>
       </c>
       <c r="T267" t="n">
         <v>2025</v>
       </c>
       <c r="U267" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V267" t="inlineStr">
         <is>
-          <t>2025-06</t>
-        </is>
-      </c>
-      <c r="W267" t="n">
-        <v>1</v>
-      </c>
-      <c r="X267" t="n">
-        <v>33.33333333333333</v>
-      </c>
+          <t>2025-05</t>
+        </is>
+      </c>
+      <c r="W267" t="inlineStr"/>
+      <c r="X267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -27165,99 +26675,69 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Emboscada armada a Carabineros en ruta Tirúa–Cañete</t>
+          <t>Ataque armado e incendio de vehículo</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>45832</v>
+        <v>45791</v>
       </c>
       <c r="D268" t="n">
-        <v>45832</v>
+        <v>45791</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Tirúa–Cañete</t>
+          <t>Tirúa</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>Ataque armado</t>
-        </is>
-      </c>
-      <c r="G268" t="inlineStr">
-        <is>
-          <t>-38.3417° S</t>
-        </is>
-      </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>-73.4917° W</t>
-        </is>
-      </c>
-      <c r="I268" t="n">
-        <v>-383417</v>
-      </c>
-      <c r="J268" t="n">
-        <v>-734917</v>
-      </c>
+          <t>Ataque incendiario</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr"/>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
-          <t>Emboscada con disparos a patrulla policial.</t>
+          <t>Ataque armado con posterior incendio de vehículo.</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Sin víctimas fatales.</t>
+          <t>Incorporado por ajuste benchmark El Líbero 2025</t>
         </is>
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>Emol https://www.emol.com/noticias/Nacional/2025/07/02/emboscada-carabineros-tirua-canete.html</t>
-        </is>
-      </c>
-      <c r="N268" t="inlineStr">
-        <is>
-          <t>Desconocido</t>
-        </is>
-      </c>
-      <c r="O268" t="inlineStr">
-        <is>
-          <t>Elemento</t>
-        </is>
-      </c>
+          <t>Cooperativa + El Austral Biobío</t>
+        </is>
+      </c>
+      <c r="N268" t="inlineStr"/>
+      <c r="O268" t="inlineStr"/>
       <c r="P268" t="inlineStr">
         <is>
-          <t>RMD/Lists/ARAUCANIA</t>
-        </is>
-      </c>
-      <c r="Q268" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="R268" t="n">
-        <v>44.35</v>
-      </c>
+          <t>Biobío</t>
+        </is>
+      </c>
+      <c r="Q268" t="inlineStr"/>
+      <c r="R268" t="inlineStr"/>
       <c r="S268" s="2" t="n">
-        <v>45832</v>
+        <v>45791</v>
       </c>
       <c r="T268" t="n">
         <v>2025</v>
       </c>
       <c r="U268" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V268" t="inlineStr">
         <is>
-          <t>2025-06</t>
-        </is>
-      </c>
-      <c r="W268" t="n">
-        <v>2</v>
-      </c>
-      <c r="X268" t="n">
-        <v>66.66666666666666</v>
-      </c>
+          <t>2025-05</t>
+        </is>
+      </c>
+      <c r="W268" t="inlineStr"/>
+      <c r="X268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -27265,18 +26745,18 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Ataque incendiario a faena forestal en Capitán Pastene</t>
+          <t>Ataque incendiario en Ruta R-86</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>45835</v>
+        <v>45799</v>
       </c>
       <c r="D269" t="n">
-        <v>45835</v>
+        <v>45799</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Capitán Pastene (Traiguén)</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
@@ -27286,38 +26766,38 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>-38.1933° S</t>
+          <t>-38.2233° S</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>-72.6367° W</t>
+          <t>-72.3233° W</t>
         </is>
       </c>
       <c r="I269" t="n">
-        <v>-381933</v>
+        <v>-382233</v>
       </c>
       <c r="J269" t="n">
-        <v>-726367</v>
+        <v>-723233</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>Incendio de camión y maquinaria forestal; carteles en el lugar.</t>
+          <t>Incendio de 3 camiones forestales en la Ruta R-86, sector rural de Victoria. Encapuchados armados intimidaron al conductor, quien escapó ileso. Sin víctimas.</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Reivindicación posterior.</t>
+          <t>Ocurrió un día antes del atentado en Mulchén y tras el anuncio de Boric sobre el informe de la Comisión para la Paz (22/05/2025), sugiriendo reacción a políticas gubernamentales. Investigado por la PDI. Refuerza esquizes (Indigenismo, Narcoterrorismo) y percepción de colapso (CEE(t)=99, Bext(t)=387).</t>
         </is>
       </c>
       <c r="M269" t="inlineStr">
         <is>
-          <t>BioBioChile https://www.biobiochile.cl/noticias/nacional/region-de-la-araucania/2025/07/05/ataque-incendiario-capitan-pastene.shtml</t>
+          <t>[Emol, 22/05/2025](https://www.emol.com/noticias/Nacional/2025/05/22/1167180/ataque-incendiario-victoria-tres-camiones.html), [La Tercera, 22/05/2025](https://www.latercera.com/nacional/noticia/ataque-incendiario-en-victoria-quema-tres-camiones-ruta-r86), [AraucaniaDiario, 22/05/2025](https://www.araucaniadiario.cl/noticias/ataque-incendiario-en-victoria-deja-tres-camiones-quemados), [apra_araucania, 22/05/2025](https://x.com/apra_araucania/status/1793745829103742976)</t>
         </is>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>Weichán Auka Mapu</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
@@ -27332,31 +26812,31 @@
       </c>
       <c r="Q269" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="R269" t="n">
-        <v>25.93</v>
+        <v>59.58</v>
       </c>
       <c r="S269" s="2" t="n">
-        <v>45835</v>
+        <v>45799</v>
       </c>
       <c r="T269" t="n">
         <v>2025</v>
       </c>
       <c r="U269" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V269" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-05</t>
         </is>
       </c>
       <c r="W269" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X269" t="n">
-        <v>33.33333333333333</v>
+        <v>66.66666666666666</v>
       </c>
     </row>
     <row r="270">
@@ -27365,18 +26845,18 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Presunto ataque incendiario a camión en ruta R-182 Collipulli–Angol (cruce Lolenco)</t>
+          <t>Ataque incendiario en Fundo Porvenir</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>45857</v>
+        <v>45800</v>
       </c>
       <c r="D270" t="n">
-        <v>45857</v>
+        <v>45800</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Collipulli–Angol</t>
+          <t>Mulchén</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -27386,38 +26866,38 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>-37.9558° S</t>
+          <t>-37.6967° S</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>-72.4397° W</t>
+          <t>-72.2133° W</t>
         </is>
       </c>
       <c r="I270" t="n">
-        <v>-379558</v>
+        <v>-376967</v>
       </c>
       <c r="J270" t="n">
-        <v>-724397</v>
+        <v>-722133</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>Camión incendiado en la Ruta 182 tras intimidación a conductor.</t>
+          <t>Incendio de 7 vehículos (4 camionetas, 2 maquinarias, 1 camión) y 2 containers en el Fundo Porvenir, Sector Enlace los Pinos, kilómetro 4 de la Ruta Q-896. Encapuchados armados intimidaron a trabajadores. Sin víctimas. Consignas: “Fuera las forestales del Wallmapu”, “Libertad a los Presos Políticos Mapuches”.</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>Investigación en curso.</t>
+          <t>Primera acción violenta en Mulchén desde 2023, horas después del anuncio de Boric sobre el informe de la Comisión para la Paz. Investigado por BIPE y Lacrim PDI. Refuerza esquizes (Indigenismo, Narcoterrorismo) y percepción de colapso (CEE(t)=100, Bext(t)=390).</t>
         </is>
       </c>
       <c r="M270" t="inlineStr">
         <is>
-          <t>BioBioChile https://www.biobiochile.cl/noticias/nacional/region-de-la-araucania/2025/07/19/camion-quemado-ruta-182-collipulli-angol/</t>
+          <t>[BioBioChile, 23/05/2025](https://www.biobiochile.cl/noticias/nacional/chile/2025/05/23/al-menos-7-vehiculos-destruidos-deja-atentado-incendiario-en-predio-de-cmpc-en-mulchen.shtml), [El Mostrador, 23/05/2025](https://www.elmostrador.cl/noticias/pais/2025/05/23/ataque-incendiario-en-predio-de-cmcp-en-mulchen-deja-al-menos-7-vehiculos-y-2-containers-destruidos/), [Emol, 23/05/2025](https://www.emol.com/noticias/Economia/2025/05/23/1167179/empresarios-ataque-cmpc.html)</t>
         </is>
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Consignas pro-presos políticos mapuches, sin autoría específica</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
@@ -27432,31 +26912,31 @@
       </c>
       <c r="Q270" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="R270" t="n">
-        <v>34.09</v>
+        <v>67.54000000000001</v>
       </c>
       <c r="S270" s="2" t="n">
-        <v>45857</v>
+        <v>45800</v>
       </c>
       <c r="T270" t="n">
         <v>2025</v>
       </c>
       <c r="U270" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V270" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>2025-05</t>
         </is>
       </c>
       <c r="W270" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X270" t="n">
-        <v>66.66666666666666</v>
+        <v>100</v>
       </c>
     </row>
     <row r="271">
@@ -27465,99 +26945,61 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Quema de camiones forestales en Lumaco</t>
-        </is>
-      </c>
-      <c r="C271" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D271" t="n">
-        <v>45859</v>
-      </c>
+          <t>Atentado incendiario en predio CMPC (Fundo Porvenir) en Mulchén: 7 vehículos y 2 containers destruidos</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr"/>
+      <c r="D271" t="inlineStr"/>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Lumaco</t>
+          <t>Mulchén (Fundo Porvenir, cruce Los Pinos) (Región del Biobío)</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>Quema camión</t>
-        </is>
-      </c>
-      <c r="G271" t="inlineStr">
-        <is>
-          <t>-38.1468° S</t>
-        </is>
-      </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>-72.9029° W</t>
-        </is>
-      </c>
-      <c r="I271" t="n">
-        <v>-381468</v>
-      </c>
-      <c r="J271" t="n">
-        <v>-729029</v>
-      </c>
+          <t>Atentado incendiario</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr"/>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
-          <t>Quema de camiones forestales en predio rural.</t>
-        </is>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>Daños materiales.</t>
-        </is>
-      </c>
+          <t>Ataque en predio forestal; consignas por 'presos políticos mapuches' reportadas por medios.</t>
+        </is>
+      </c>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="inlineStr">
         <is>
-          <t>La Tercera https://www.latercera.com/nacional/noticia/queman-camiones-forestales-en-lumaco/</t>
-        </is>
-      </c>
-      <c r="N271" t="inlineStr">
-        <is>
-          <t>Desconocido</t>
-        </is>
-      </c>
+          <t>BioBioChile https://www.biobiochile.cl/noticias/nacional/chile/2025/05/23/al-menos-7-vehiculos-destruidos-deja-atentado-incendiario-en-predio-de-cmpc-en-mulchen.shtml | Emol https://www.emol.com/noticias/Nacional/2025/05/23/1167132/atentado-incendiario-fundo-cmpc.html</t>
+        </is>
+      </c>
+      <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Elemento</t>
-        </is>
-      </c>
-      <c r="P271" t="inlineStr">
-        <is>
-          <t>RMD/Lists/ARAUCANIA</t>
-        </is>
-      </c>
-      <c r="Q271" t="inlineStr">
-        <is>
-          <t>Baja</t>
-        </is>
-      </c>
-      <c r="R271" t="n">
-        <v>16.72</v>
-      </c>
+          <t>Vehículos y containers</t>
+        </is>
+      </c>
+      <c r="P271" t="inlineStr"/>
+      <c r="Q271" t="inlineStr"/>
+      <c r="R271" t="inlineStr"/>
       <c r="S271" s="2" t="n">
-        <v>45859</v>
+        <v>45800</v>
       </c>
       <c r="T271" t="n">
         <v>2025</v>
       </c>
       <c r="U271" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V271" t="inlineStr">
         <is>
-          <t>2025-07</t>
-        </is>
-      </c>
-      <c r="W271" t="n">
-        <v>1</v>
-      </c>
-      <c r="X271" t="n">
-        <v>33.33333333333333</v>
-      </c>
+          <t>2025-05</t>
+        </is>
+      </c>
+      <c r="W271" t="inlineStr"/>
+      <c r="X271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -27565,54 +27007,54 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Disparos contra vivienda de agricultor en Curacautín</t>
+          <t>Ataque incendiario a maquinaria forestal en Collipulli</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>45867</v>
+        <v>45813</v>
       </c>
       <c r="D272" t="n">
-        <v>45867</v>
+        <v>45813</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Curacautín</t>
+          <t>Collipulli</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Ataque armado</t>
+          <t>Ataque incendiario</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>-38.4257° S</t>
+          <t>-37.9558° S</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>-71.8854° W</t>
+          <t>-72.4397° W</t>
         </is>
       </c>
       <c r="I272" t="n">
-        <v>-384257</v>
+        <v>-379558</v>
       </c>
       <c r="J272" t="n">
-        <v>-718854</v>
+        <v>-724397</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>Disparos contra vivienda particular sin lesionados.</t>
+          <t>Incendio de cuatro camiones y cuatro máquinas forestales en Ruta 182.</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Intimidación armada.</t>
+          <t>Hecho reportado en informe mensual; no siempre desagregado.</t>
         </is>
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>Araucanía Diario https://www.araucaniadiario.cl/contenido/ataque-disparos-curacautin</t>
+          <t>Multigremial Araucanía (Informe Junio 2025) https://multigremialaraucania.cl/wp-content/uploads/2025/08/MGA-informe-junio-2025_compressed.pdf</t>
         </is>
       </c>
       <c r="N272" t="inlineStr">
@@ -27636,20 +27078,20 @@
         </is>
       </c>
       <c r="R272" t="n">
-        <v>35.88</v>
+        <v>35.86</v>
       </c>
       <c r="S272" s="2" t="n">
-        <v>45867</v>
+        <v>45813</v>
       </c>
       <c r="T272" t="n">
         <v>2025</v>
       </c>
       <c r="U272" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V272" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="W272" t="n">
@@ -27665,54 +27107,54 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Ataque incendiario en ruta R-35 San Andrés (Collipulli)</t>
+          <t>Quema de camión forestal en Carahue (ruta a Nueva Imperial)</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>45870</v>
+        <v>45819</v>
       </c>
       <c r="D273" t="n">
-        <v>45870</v>
+        <v>45819</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Collipulli</t>
+          <t>Carahue</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>Ataque incendiario</t>
+          <t>Quema camión</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>-37.9558° S</t>
+          <t>-38.7237° S</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>-72.4397° W</t>
+          <t>-73.1714° W</t>
         </is>
       </c>
       <c r="I273" t="n">
-        <v>-379558</v>
+        <v>-387237</v>
       </c>
       <c r="J273" t="n">
-        <v>-724397</v>
+        <v>-731714</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>Ataque incendiario afecta camiones y una grúa.</t>
+          <t>Camión forestal incendiado en ruta secundaria.</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Corte parcial de ruta.</t>
+          <t>Daños materiales.</t>
         </is>
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>BioBioChile https://www.biobiochile.cl/noticias/nacional/region-de-la-araucania/2025/08/01/ataque-incendiario-ruta-r35-collipulli/</t>
+          <t>Multigremial Araucanía (Informe Junio 2025) https://multigremialaraucania.cl/wp-content/uploads/2025/08/MGA-informe-junio-2025_compressed.pdf</t>
         </is>
       </c>
       <c r="N273" t="inlineStr">
@@ -27732,31 +27174,31 @@
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Baja</t>
         </is>
       </c>
       <c r="R273" t="n">
-        <v>51.42</v>
+        <v>16.72</v>
       </c>
       <c r="S273" s="2" t="n">
-        <v>45870</v>
+        <v>45819</v>
       </c>
       <c r="T273" t="n">
         <v>2025</v>
       </c>
       <c r="U273" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V273" t="inlineStr">
         <is>
-          <t>2025-08</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="W273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X273" t="n">
-        <v>66.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
     </row>
     <row r="274">
@@ -27765,59 +27207,59 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Homicidio de trabajador forestal en Los Sauces</t>
+          <t>Ataque incendiario a camiones en Hostería Lejano Oeste</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>45878</v>
+        <v>45819</v>
       </c>
       <c r="D274" t="n">
-        <v>45878</v>
+        <v>45819</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Los Sauces</t>
+          <t>Ercilla</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Asesinato</t>
+          <t>Ataque incendiario</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>-37.9567° S</t>
+          <t>-37.9650° S</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>-72.8067° W</t>
+          <t>-72.3800° W</t>
         </is>
       </c>
       <c r="I274" t="n">
-        <v>-379567</v>
+        <v>-379650</v>
       </c>
       <c r="J274" t="n">
-        <v>-728067</v>
+        <v>-723800</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>Trabajador forestal asesinado durante ataque armado.</t>
+          <t>Encapuchados armados entraron al estacionamiento de la hostería, dispararon, golpearon a dos conductores, rociaron acelerante y quemaron seis camiones.</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Caso de alto impacto.</t>
+          <t>Lienzo dejado: “Néstor Flores-director (de Gendarmería en La Araucanía)/ Héctor Miranda-alcaide (de la cárcel de Angol) esto es sin llorar!! libertad p.p.m. las autoridades mapuches se respetan!! Resistencia Mapuche Malleco”. Vinculado a detención de lonko Víctor Queipul.</t>
         </is>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>Emol https://www.emol.com/noticias/Nacional/2025/08/09/homicidio-trabajador-forestal-los-sauces.html</t>
+          <t>El Líbero: Cinco atentados en siete días (16/06/2025)</t>
         </is>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Resistencia Mapuche Malleco (RMM)</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
@@ -27836,20 +27278,20 @@
         </is>
       </c>
       <c r="R274" t="n">
-        <v>48.75</v>
+        <v>39.51</v>
       </c>
       <c r="S274" s="2" t="n">
-        <v>45878</v>
+        <v>45819</v>
       </c>
       <c r="T274" t="n">
         <v>2025</v>
       </c>
       <c r="U274" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V274" t="inlineStr">
         <is>
-          <t>2025-08</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="W274" t="n">
@@ -27865,54 +27307,54 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Ataque incendiario a camión particular en Angol</t>
+          <t>Quema de camiones forestales en Pailahueo (Ercilla)</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>45917</v>
+        <v>45819</v>
       </c>
       <c r="D275" t="n">
-        <v>45917</v>
+        <v>45819</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Ercilla</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Ataque incendiario</t>
+          <t>Quema camión</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>-37.8062° S</t>
+          <t>-37.9621° S</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>-72.7255° W</t>
+          <t>-72.3905° W</t>
         </is>
       </c>
       <c r="I275" t="n">
-        <v>-378062</v>
+        <v>-379621</v>
       </c>
       <c r="J275" t="n">
-        <v>-727255</v>
+        <v>-723905</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>Camión particular incendiado en sector rural.</t>
+          <t>Cuatro camiones forestales incendiados en sector Pailahueo.</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Sin heridos.</t>
+          <t>Evento recurrente en zona roja.</t>
         </is>
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>BioBioChile https://www.biobiochile.cl/noticias/nacional/region-de-la-araucania/2025/09/17/camion-incendiado-angol/</t>
+          <t>Multigremial Araucanía (Informe Junio 2025) https://multigremialaraucania.cl/wp-content/uploads/2025/08/MGA-informe-junio-2025_compressed.pdf</t>
         </is>
       </c>
       <c r="N275" t="inlineStr">
@@ -27936,20 +27378,20 @@
         </is>
       </c>
       <c r="R275" t="n">
-        <v>27.72</v>
+        <v>26.65</v>
       </c>
       <c r="S275" s="2" t="n">
-        <v>45917</v>
+        <v>45819</v>
       </c>
       <c r="T275" t="n">
         <v>2025</v>
       </c>
       <c r="U275" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="V275" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="W275" t="n">
@@ -27965,59 +27407,59 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Ataque armado e incendiario con bodega y vehículos quemados en Ercilla</t>
+          <t>Ataque incendiario a camión en Nueva Imperial</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>45927</v>
+        <v>45819</v>
       </c>
       <c r="D276" t="n">
-        <v>45927</v>
+        <v>45819</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Ercilla</t>
+          <t>Nueva Imperial</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Ataque armado</t>
+          <t>Quema camión</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>-37.9621° S</t>
+          <t>-38.7333° S</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>-72.3905° W</t>
+          <t>-72.9500° W</t>
         </is>
       </c>
       <c r="I276" t="n">
-        <v>-379621</v>
+        <v>-387333</v>
       </c>
       <c r="J276" t="n">
-        <v>-723905</v>
+        <v>-729500</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>Ataque armado seguido de incendio de bodega y dos vehículos.</t>
+          <t>Al menos tres sujetos interceptaron un camión, dispararon al aire, obligaron al conductor a bajar y prendieron fuego al vehículo en la ruta.</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Hecho nocturno.</t>
+          <t>Repudio a acciones de Gendarmería y preocupación por lonko Víctor Queipul expresados en redes sociales. Parte de escalada post-detención.</t>
         </is>
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>Las Noticias de Malleco https://lasnoticiasdemalleco.cl/policial/ataque-armado-ercilla-incendio/</t>
+          <t>El Líbero: Cinco atentados en siete días (16/06/2025)</t>
         </is>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Desconocido (vinculado a demandas mapuches)</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
@@ -28032,31 +27474,31 @@
       </c>
       <c r="Q276" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="R276" t="n">
-        <v>21.12</v>
+        <v>33.45</v>
       </c>
       <c r="S276" s="2" t="n">
-        <v>45927</v>
+        <v>45819</v>
       </c>
       <c r="T276" t="n">
         <v>2025</v>
       </c>
       <c r="U276" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="V276" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="W276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X276" t="n">
-        <v>33.33333333333333</v>
+        <v>66.66666666666666</v>
       </c>
     </row>
     <row r="277">
@@ -28065,54 +27507,54 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Sabotaje a tendido eléctrico con corte de luz en Ercilla</t>
+          <t>Incendio intencional de iglesia en Curacautín (sector Los Monos)</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>45927</v>
+        <v>45820</v>
       </c>
       <c r="D277" t="n">
-        <v>45927</v>
+        <v>45820</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Ercilla</t>
+          <t>Curacautín</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Atentado</t>
+          <t>Ataque incendiario</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>-37.9621° S</t>
+          <t>-38.4257° S</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>-72.3905° W</t>
+          <t>-71.8854° W</t>
         </is>
       </c>
       <c r="I277" t="n">
-        <v>-379621</v>
+        <v>-384257</v>
       </c>
       <c r="J277" t="n">
-        <v>-723905</v>
+        <v>-718854</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>Corte intencional de suministro eléctrico.</t>
+          <t>Iglesia destruida por incendio intencional.</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Infraestructura crítica.</t>
+          <t>Ataque simbólico-religioso.</t>
         </is>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>Diario Austral https://www.australtemuco.cl/noticias/ercilla-sabotaje-tendido-electrico/</t>
+          <t>Multigremial Araucanía (Informe Junio 2025) https://multigremialaraucania.cl/wp-content/uploads/2025/08/MGA-informe-junio-2025_compressed.pdf</t>
         </is>
       </c>
       <c r="N277" t="inlineStr">
@@ -28132,31 +27574,31 @@
       </c>
       <c r="Q277" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Baja</t>
         </is>
       </c>
       <c r="R277" t="n">
-        <v>34.91</v>
+        <v>16.72</v>
       </c>
       <c r="S277" s="2" t="n">
-        <v>45927</v>
+        <v>45820</v>
       </c>
       <c r="T277" t="n">
         <v>2025</v>
       </c>
       <c r="U277" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="V277" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="W277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X277" t="n">
-        <v>66.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
     </row>
     <row r="278">
@@ -28165,59 +27607,59 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Asesinato en fundo rural (dueño de casa fallece tras ataque)</t>
+          <t>Ataque incendiario a Capilla San Francisco</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>45933</v>
+        <v>45820</v>
       </c>
       <c r="D278" t="n">
-        <v>45933</v>
+        <v>45820</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Araucanía</t>
+          <t>Curacautín-Victoria</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>Asesinato</t>
+          <t>Ataque incendiario</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>-38.0000° S</t>
+          <t>-38.3300° S</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>-72.5000° W</t>
+          <t>-72.1000° W</t>
         </is>
       </c>
       <c r="I278" t="n">
-        <v>-380000</v>
+        <v>-383300</v>
       </c>
       <c r="J278" t="n">
-        <v>-725000</v>
+        <v>-721000</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>Dueño de casa fallece tras ataque armado en fundo rural.</t>
+          <t>Grupo de encapuchados armados quemó completamente la capilla, disparó al aire y esparció miguelitos durante la huida.</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Fallece tras días hospitalizado.</t>
+          <t>Lienzo: “Que Gendarmería asuma las consecuencias sin llorar. Nuestra autoridad lonko Víctor Keipul se respeta”. Vinculado a detención de Queipul.</t>
         </is>
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>Ex-Ante https://www.ex-ante.cl/ataque-armado-fundo-araucania-fallece-dueno/</t>
+          <t>El Líbero: Cinco atentados en siete días (16/06/2025)</t>
         </is>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Desconocido (vinculado a demandas mapuches)</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
@@ -28232,31 +27674,31 @@
       </c>
       <c r="Q278" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Baja</t>
         </is>
       </c>
       <c r="R278" t="n">
-        <v>48.75</v>
+        <v>16.72</v>
       </c>
       <c r="S278" s="2" t="n">
-        <v>45933</v>
+        <v>45820</v>
       </c>
       <c r="T278" t="n">
         <v>2025</v>
       </c>
       <c r="U278" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="V278" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="W278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X278" t="n">
-        <v>66.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
     </row>
     <row r="279">
@@ -28265,54 +27707,54 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Ataque incendiario múltiple en fundo San Luis (Los Sauces)</t>
+          <t>Ataque armado a Carabineros en Sector San Ramón</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>45933</v>
+        <v>45821</v>
       </c>
       <c r="D279" t="n">
-        <v>45933</v>
+        <v>45821</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Los Sauces</t>
+          <t>Ercilla</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>Ataque incendiario</t>
+          <t>Ataque armado</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>-37.9567° S</t>
+          <t>-37.9650° S</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>-72.8067° W</t>
+          <t>-72.3800° W</t>
         </is>
       </c>
       <c r="I279" t="n">
-        <v>-379567</v>
+        <v>-379650</v>
       </c>
       <c r="J279" t="n">
-        <v>-728067</v>
+        <v>-723800</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>Incendio de viviendas, bodega y maquinaria agrícola.</t>
+          <t>Grupo desconocido atacó con armas de fuego a personal de Carabineros desde zonas boscosas durante labores de protección; un carabinero herido en la pierna por impacto balístico (lesión grave pero no mortal).</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Panfletos en el lugar.</t>
+          <t>Investigado por OS9 y Labocar de la Fiscalía. Parte de escalada violenta post-detención de Queipul.</t>
         </is>
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>El Líbero https://ellibero.cl/actualidad/ataque-incendiario-fundo-san-luis-los-sauces/</t>
+          <t>El Líbero: Cinco atentados en siete días (16/06/2025)</t>
         </is>
       </c>
       <c r="N279" t="inlineStr">
@@ -28336,20 +27778,20 @@
         </is>
       </c>
       <c r="R279" t="n">
-        <v>34.09</v>
+        <v>36.93</v>
       </c>
       <c r="S279" s="2" t="n">
-        <v>45933</v>
+        <v>45821</v>
       </c>
       <c r="T279" t="n">
         <v>2025</v>
       </c>
       <c r="U279" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="V279" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="W279" t="n">
@@ -28365,59 +27807,59 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Corte armado de ruta con disparos en Ercilla</t>
+          <t>Detención de Emilio Berkhoff y ola de ataques incendiarios asociados</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>45936</v>
+        <v>45823</v>
       </c>
       <c r="D280" t="n">
-        <v>45936</v>
+        <v>45823</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Ercilla</t>
+          <t>Araucanía (varios)</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>Ataque armado</t>
+          <t>Ataque incendiario</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>-37.9654° S</t>
+          <t>-38.0000° S</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>-72.3762° W</t>
+          <t>-72.5000° W</t>
         </is>
       </c>
       <c r="I280" t="n">
-        <v>-379654</v>
+        <v>-380000</v>
       </c>
       <c r="J280" t="n">
-        <v>-723762</v>
+        <v>-725000</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>Bloqueo de ruta con árboles y disparos.</t>
+          <t>Serie de quema de camiones y maquinaria tras detención de Berkhoff.</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Control territorial.</t>
+          <t>Evento gatillante; violencia reactiva.</t>
         </is>
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>Cooperativa https://www.cooperativa.cl/noticias/pais/region-de-la-araucania/ercilla-corte-ruta-disparos/2025-10-06/</t>
+          <t>Wikipedia + prensa nacional https://es.wikipedia.org/wiki/Enfrentamientos_en_la_Araucanía_de_2020-2025</t>
         </is>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Entorno CAM</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
@@ -28432,31 +27874,31 @@
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Baja</t>
         </is>
       </c>
       <c r="R280" t="n">
-        <v>35.14</v>
+        <v>25.93</v>
       </c>
       <c r="S280" s="2" t="n">
-        <v>45936</v>
+        <v>45823</v>
       </c>
       <c r="T280" t="n">
         <v>2025</v>
       </c>
       <c r="U280" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="V280" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="W280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X280" t="n">
-        <v>66.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
     </row>
     <row r="281">
@@ -28465,59 +27907,59 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Ataque incendiario en Ruta 5 Sur al sur de Pidima</t>
+          <t>Sabotaje a vía férrea en Kilómetro 796</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>45942</v>
+        <v>45823</v>
       </c>
       <c r="D281" t="n">
-        <v>45942</v>
+        <v>45823</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Ercilla</t>
+          <t>Máfil (Los Ríos, Macrozona Sur)</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>Ataque incendiario</t>
+          <t>Atentado</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>-37.9650° S</t>
+          <t>-39.6500° S</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>-72.3800° W</t>
+          <t>-73.1200° W</t>
         </is>
       </c>
       <c r="I281" t="n">
-        <v>-379650</v>
+        <v>-396500</v>
       </c>
       <c r="J281" t="n">
-        <v>-723800</v>
+        <v>-731200</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>Camioneta incendiada; personas heridas.</t>
+          <t>Extracción de al menos un perno de anclaje de la vía férrea, causando inestabilidad; tren con locomotora y 81 carros vacíos detectó el problema y se detuvo. Se encontró un lienzo exigiendo liberación de presos políticos mapuches (Héctor Llaitul, Luis Tranamil, Nelson Queipul) y munición 9mm sin percutir.</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Ruta 5 afectada.</t>
+          <t>Investigado por BIPE y Lacrim de la PDI. Posible sabotaje vinculado a demandas mapuches; primera acción en Máfil en meses.</t>
         </is>
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>Acoforag https://www.acoforag.cl/noticias/ataque-incendiario-pidima/</t>
+          <t>El Líbero: Cinco atentados en siete días (16/06/2025)</t>
         </is>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Desconocido (vinculado a demandas mapuches)</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
@@ -28536,20 +27978,20 @@
         </is>
       </c>
       <c r="R281" t="n">
-        <v>54.34</v>
+        <v>41.16</v>
       </c>
       <c r="S281" s="2" t="n">
-        <v>45942</v>
+        <v>45823</v>
       </c>
       <c r="T281" t="n">
         <v>2025</v>
       </c>
       <c r="U281" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="V281" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="W281" t="n">
@@ -28565,99 +28007,69 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Ataque armado a fundo agrícola en Victoria</t>
+          <t>Quema de camión forestal</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>45944</v>
+        <v>45826</v>
       </c>
       <c r="D282" t="n">
-        <v>45944</v>
+        <v>45826</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Victoria</t>
+          <t>Paillaco</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>Ataque armado</t>
-        </is>
-      </c>
-      <c r="G282" t="inlineStr">
-        <is>
-          <t>-38.2281° S</t>
-        </is>
-      </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>-72.3276° W</t>
-        </is>
-      </c>
-      <c r="I282" t="n">
-        <v>-382281</v>
-      </c>
-      <c r="J282" t="n">
-        <v>-723276</v>
-      </c>
+          <t>Ataque incendiario</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr"/>
+      <c r="H282" t="inlineStr"/>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
-          <t>Disparos y daños en fundo agrícola.</t>
+          <t>Camión forestal incendiado.</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Sin víctimas fatales.</t>
+          <t>Incorporado por ajuste benchmark El Líbero 2025</t>
         </is>
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>BioBioChile https://www.biobiochile.cl/noticias/nacional/region-de-la-araucania/2025/10/14/ataque-armado-victoria/</t>
-        </is>
-      </c>
-      <c r="N282" t="inlineStr">
-        <is>
-          <t>Desconocido</t>
-        </is>
-      </c>
-      <c r="O282" t="inlineStr">
-        <is>
-          <t>Elemento</t>
-        </is>
-      </c>
+          <t>SoyChile Valdivia + Cooperativa</t>
+        </is>
+      </c>
+      <c r="N282" t="inlineStr"/>
+      <c r="O282" t="inlineStr"/>
       <c r="P282" t="inlineStr">
         <is>
-          <t>RMD/Lists/ARAUCANIA</t>
-        </is>
-      </c>
-      <c r="Q282" t="inlineStr">
-        <is>
-          <t>Baja</t>
-        </is>
-      </c>
-      <c r="R282" t="n">
-        <v>16.72</v>
-      </c>
+          <t>Los Ríos</t>
+        </is>
+      </c>
+      <c r="Q282" t="inlineStr"/>
+      <c r="R282" t="inlineStr"/>
       <c r="S282" s="2" t="n">
-        <v>45944</v>
+        <v>45826</v>
       </c>
       <c r="T282" t="n">
         <v>2025</v>
       </c>
       <c r="U282" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="V282" t="inlineStr">
         <is>
-          <t>2025-10</t>
-        </is>
-      </c>
-      <c r="W282" t="n">
-        <v>1</v>
-      </c>
-      <c r="X282" t="n">
-        <v>33.33333333333333</v>
-      </c>
+          <t>2025-06</t>
+        </is>
+      </c>
+      <c r="W282" t="inlineStr"/>
+      <c r="X282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -28665,54 +28077,54 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Ataque a disparos con neumáticos encendidos en Ruta 5 Sur (Victoria)</t>
+          <t>Ataque incendiario en fundo Boyeco con dos trabajadores heridos</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>45953</v>
+        <v>45831</v>
       </c>
       <c r="D283" t="n">
-        <v>45953</v>
+        <v>45831</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Victoria</t>
+          <t>Ercilla</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>Ataque armado</t>
+          <t>Ataque incendiario</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>-38.2281° S</t>
+          <t>-37.9800° S</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>-72.3276° W</t>
+          <t>-72.3600° W</t>
         </is>
       </c>
       <c r="I283" t="n">
-        <v>-382281</v>
+        <v>-379800</v>
       </c>
       <c r="J283" t="n">
-        <v>-723276</v>
+        <v>-723600</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>Disparos y barricadas incendiarias en Ruta 5.</t>
+          <t>Ataque incendiario en predio Boyeco; dos trabajadores resultan heridos.</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Interrupción de tránsito.</t>
+          <t>Escalada con lesionados.</t>
         </is>
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>Emol https://www.emol.com/noticias/Nacional/2025/10/23/ataque-disparos-ruta-5-victoria.html</t>
+          <t>BioBioChile https://www.biobiochile.cl/noticias/nacional/region-de-la-araucania/2025/07/01/ataque-incendiario-boyeco-dos-heridos.shtml</t>
         </is>
       </c>
       <c r="N283" t="inlineStr">
@@ -28732,31 +28144,31 @@
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Baja</t>
         </is>
       </c>
       <c r="R283" t="n">
-        <v>52.55</v>
+        <v>22.91</v>
       </c>
       <c r="S283" s="2" t="n">
-        <v>45953</v>
+        <v>45831</v>
       </c>
       <c r="T283" t="n">
         <v>2025</v>
       </c>
       <c r="U283" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="V283" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="W283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X283" t="n">
-        <v>66.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
     </row>
     <row r="284">
@@ -28765,18 +28177,18 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Carabinero repele ataque a disparos contra vehículos en Ruta 5 Sur</t>
+          <t>Emboscada armada a Carabineros en ruta Tirúa–Cañete</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>45954</v>
+        <v>45832</v>
       </c>
       <c r="D284" t="n">
-        <v>45954</v>
+        <v>45832</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Victoria</t>
+          <t>Tirúa–Cañete</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
@@ -28786,33 +28198,33 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>-38.2281° S</t>
+          <t>-38.3417° S</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>-72.3276° W</t>
+          <t>-73.4917° W</t>
         </is>
       </c>
       <c r="I284" t="n">
-        <v>-382281</v>
+        <v>-383417</v>
       </c>
       <c r="J284" t="n">
-        <v>-723276</v>
+        <v>-734917</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>Funcionario repele ataque armado contra vehículos.</t>
+          <t>Emboscada con disparos a patrulla policial.</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Uso de arma de servicio.</t>
+          <t>Sin víctimas fatales.</t>
         </is>
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>Cooperativa https://www.cooperativa.cl/noticias/pais/region-de-la-araucania/carabinero-repele-ataque-ruta-5/2025-10-24/</t>
+          <t>Emol https://www.emol.com/noticias/Nacional/2025/07/02/emboscada-carabineros-tirua-canete.html</t>
         </is>
       </c>
       <c r="N284" t="inlineStr">
@@ -28832,31 +28244,31 @@
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>Alta</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="R284" t="n">
-        <v>61.76</v>
+        <v>44.35</v>
       </c>
       <c r="S284" s="2" t="n">
-        <v>45954</v>
+        <v>45832</v>
       </c>
       <c r="T284" t="n">
         <v>2025</v>
       </c>
       <c r="U284" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="V284" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="W284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X284" t="n">
-        <v>100</v>
+        <v>66.66666666666666</v>
       </c>
     </row>
     <row r="285">
@@ -28865,18 +28277,18 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Ataque incendiario en fundo El Traipo (Vilcún)</t>
+          <t>Ataque incendiario a faena forestal en Capitán Pastene</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>45963</v>
+        <v>45835</v>
       </c>
       <c r="D285" t="n">
-        <v>45963</v>
+        <v>45835</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Vilcún</t>
+          <t>Capitán Pastene (Traiguén)</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
@@ -28886,38 +28298,38 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>-38.6642° S</t>
+          <t>-38.1933° S</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>-72.2295° W</t>
+          <t>-72.6367° W</t>
         </is>
       </c>
       <c r="I285" t="n">
-        <v>-386642</v>
+        <v>-381933</v>
       </c>
       <c r="J285" t="n">
-        <v>-722295</v>
+        <v>-726367</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>Casa patronal y galpón destruidos.</t>
+          <t>Incendio de camión y maquinaria forestal; carteles en el lugar.</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Hecho nocturno.</t>
+          <t>Reivindicación posterior.</t>
         </is>
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>Ex-Ante https://www.ex-ante.cl/ataque-incendiario-fundo-el-traipo-vilcun/</t>
+          <t>BioBioChile https://www.biobiochile.cl/noticias/nacional/region-de-la-araucania/2025/07/05/ataque-incendiario-capitan-pastene.shtml</t>
         </is>
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Weichán Auka Mapu</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
@@ -28936,20 +28348,20 @@
         </is>
       </c>
       <c r="R285" t="n">
-        <v>16.72</v>
+        <v>25.93</v>
       </c>
       <c r="S285" s="2" t="n">
-        <v>45963</v>
+        <v>45835</v>
       </c>
       <c r="T285" t="n">
         <v>2025</v>
       </c>
       <c r="U285" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="V285" t="inlineStr">
         <is>
-          <t>2025-11</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="W285" t="n">
@@ -28965,18 +28377,18 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Ataque incendiario en sector El Natre (Vilcún)</t>
+          <t>Presunto ataque incendiario a camión en ruta R-182 Collipulli–Angol (cruce Lolenco)</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>45963</v>
+        <v>45857</v>
       </c>
       <c r="D286" t="n">
-        <v>45963</v>
+        <v>45857</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Vilcún</t>
+          <t>Collipulli–Angol</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
@@ -28986,33 +28398,33 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>-38.6642° S</t>
+          <t>-37.9558° S</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>-72.2295° W</t>
+          <t>-72.4397° W</t>
         </is>
       </c>
       <c r="I286" t="n">
-        <v>-386642</v>
+        <v>-379558</v>
       </c>
       <c r="J286" t="n">
-        <v>-722295</v>
+        <v>-724397</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>Incendio de bodega con lienzos alusivos.</t>
+          <t>Camión incendiado en la Ruta 182 tras intimidación a conductor.</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Exigencias PPM.</t>
+          <t>Investigación en curso.</t>
         </is>
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>Ex-Ante https://www.ex-ante.cl/araucania-ola-ataques-incendiarios-vilcun/</t>
+          <t>BioBioChile https://www.biobiochile.cl/noticias/nacional/region-de-la-araucania/2025/07/19/camion-quemado-ruta-182-collipulli-angol/</t>
         </is>
       </c>
       <c r="N286" t="inlineStr">
@@ -29032,31 +28444,31 @@
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="R286" t="n">
-        <v>16.72</v>
+        <v>34.09</v>
       </c>
       <c r="S286" s="2" t="n">
-        <v>45963</v>
+        <v>45857</v>
       </c>
       <c r="T286" t="n">
         <v>2025</v>
       </c>
       <c r="U286" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="V286" t="inlineStr">
         <is>
-          <t>2025-11</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="W286" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X286" t="n">
-        <v>33.33333333333333</v>
+        <v>66.66666666666666</v>
       </c>
     </row>
     <row r="287">
@@ -29065,18 +28477,18 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Ataque incendiario a maquinaria pesada en Cullinco Bajo (Carahue)</t>
+          <t>Quema de equipo forestal menor</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>45964</v>
+        <v>45859</v>
       </c>
       <c r="D287" t="n">
-        <v>45964</v>
+        <v>45859</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Carahue</t>
+          <t>Los Álamos</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
@@ -29084,80 +28496,50 @@
           <t>Ataque incendiario</t>
         </is>
       </c>
-      <c r="G287" t="inlineStr">
-        <is>
-          <t>-38.7237° S</t>
-        </is>
-      </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>-73.1714° W</t>
-        </is>
-      </c>
-      <c r="I287" t="n">
-        <v>-387237</v>
-      </c>
-      <c r="J287" t="n">
-        <v>-731714</v>
-      </c>
+      <c r="G287" t="inlineStr"/>
+      <c r="H287" t="inlineStr"/>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
-          <t>Quema de maquinaria pesada; lienzo WAM.</t>
+          <t>Equipo forestal menor incendiado.</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Reivindicación parcial.</t>
+          <t>Incorporado por ajuste benchmark El Líbero 2025</t>
         </is>
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>BioBioChile https://www.biobiochile.cl/noticias/nacional/region-de-la-araucania/2025/11/08/ataque-incendiario-carahue-wam.shtml</t>
-        </is>
-      </c>
-      <c r="N287" t="inlineStr">
-        <is>
-          <t>Weichán Auka Mapu</t>
-        </is>
-      </c>
-      <c r="O287" t="inlineStr">
-        <is>
-          <t>Elemento</t>
-        </is>
-      </c>
+          <t>Prensa comunal + Acoforag</t>
+        </is>
+      </c>
+      <c r="N287" t="inlineStr"/>
+      <c r="O287" t="inlineStr"/>
       <c r="P287" t="inlineStr">
         <is>
-          <t>RMD/Lists/ARAUCANIA</t>
-        </is>
-      </c>
-      <c r="Q287" t="inlineStr">
-        <is>
-          <t>Baja</t>
-        </is>
-      </c>
-      <c r="R287" t="n">
-        <v>16.72</v>
-      </c>
+          <t>Biobío</t>
+        </is>
+      </c>
+      <c r="Q287" t="inlineStr"/>
+      <c r="R287" t="inlineStr"/>
       <c r="S287" s="2" t="n">
-        <v>45964</v>
+        <v>45859</v>
       </c>
       <c r="T287" t="n">
         <v>2025</v>
       </c>
       <c r="U287" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="V287" t="inlineStr">
         <is>
-          <t>2025-11</t>
-        </is>
-      </c>
-      <c r="W287" t="n">
-        <v>1</v>
-      </c>
-      <c r="X287" t="n">
-        <v>33.33333333333333</v>
-      </c>
+          <t>2025-07</t>
+        </is>
+      </c>
+      <c r="W287" t="inlineStr"/>
+      <c r="X287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -29165,59 +28547,59 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Ataque incendiario: 7 máquinas forestales quemadas en Cunco (Huichahue)</t>
+          <t>Quema de camiones forestales en Lumaco</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>45965</v>
+        <v>45859</v>
       </c>
       <c r="D288" t="n">
-        <v>45965</v>
+        <v>45859</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Cunco</t>
+          <t>Lumaco</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>Ataque incendiario</t>
+          <t>Quema camión</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>-38.9300° S</t>
+          <t>-38.1468° S</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>-72.0300° W</t>
+          <t>-72.9029° W</t>
         </is>
       </c>
       <c r="I288" t="n">
-        <v>-389300</v>
+        <v>-381468</v>
       </c>
       <c r="J288" t="n">
-        <v>-720300</v>
+        <v>-729029</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>Quema de siete máquinas forestales.</t>
+          <t>Quema de camiones forestales en predio rural.</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Parte de seguidilla.</t>
+          <t>Daños materiales.</t>
         </is>
       </c>
       <c r="M288" t="inlineStr">
         <is>
-          <t>BioBioChile https://www.biobiochile.cl/noticias/nacional/region-de-la-araucania/2025/11/09/queman-7-maquinas-cunco.shtml</t>
+          <t>La Tercera https://www.latercera.com/nacional/noticia/queman-camiones-forestales-en-lumaco/</t>
         </is>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>Weichán Auka Mapu</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
@@ -29232,31 +28614,31 @@
       </c>
       <c r="Q288" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Baja</t>
         </is>
       </c>
       <c r="R288" t="n">
-        <v>31.75</v>
+        <v>16.72</v>
       </c>
       <c r="S288" s="2" t="n">
-        <v>45965</v>
+        <v>45859</v>
       </c>
       <c r="T288" t="n">
         <v>2025</v>
       </c>
       <c r="U288" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="V288" t="inlineStr">
         <is>
-          <t>2025-11</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="W288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X288" t="n">
-        <v>66.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
     </row>
     <row r="289">
@@ -29265,59 +28647,59 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Atentado incendiario a camión forestal en Nueva Imperial</t>
+          <t>Disparos contra vivienda de agricultor en Curacautín</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>45978</v>
+        <v>45867</v>
       </c>
       <c r="D289" t="n">
-        <v>45978</v>
+        <v>45867</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Nueva Imperial</t>
+          <t>Curacautín</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>Quema camión</t>
+          <t>Ataque armado</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>-38.7333° S</t>
+          <t>-38.4257° S</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>-72.9500° W</t>
+          <t>-71.8854° W</t>
         </is>
       </c>
       <c r="I289" t="n">
-        <v>-387333</v>
+        <v>-384257</v>
       </c>
       <c r="J289" t="n">
-        <v>-729500</v>
+        <v>-718854</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>Camión con rollizos incendiado.</t>
+          <t>Disparos contra vivienda particular sin lesionados.</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Reivindicación ORT-CAM.</t>
+          <t>Intimidación armada.</t>
         </is>
       </c>
       <c r="M289" t="inlineStr">
         <is>
-          <t>El Líbero https://ellibero.cl/actualidad/ataque-incendiario-nueva-imperial/</t>
+          <t>Araucanía Diario https://www.araucaniadiario.cl/contenido/ataque-disparos-curacautin</t>
         </is>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>Orgánica Resistencia Territorial CAM</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
@@ -29332,31 +28714,31 @@
       </c>
       <c r="Q289" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="R289" t="n">
-        <v>16.72</v>
+        <v>35.88</v>
       </c>
       <c r="S289" s="2" t="n">
-        <v>45978</v>
+        <v>45867</v>
       </c>
       <c r="T289" t="n">
         <v>2025</v>
       </c>
       <c r="U289" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="V289" t="inlineStr">
         <is>
-          <t>2025-11</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="W289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X289" t="n">
-        <v>33.33333333333333</v>
+        <v>66.66666666666666</v>
       </c>
     </row>
     <row r="290">
@@ -29365,18 +28747,18 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Ataque incendiario en Ruta 182 Angol–Collipulli (sector Cancura)</t>
+          <t>Ataque incendiario en ruta R-35 San Andrés (Collipulli)</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>45979</v>
+        <v>45870</v>
       </c>
       <c r="D290" t="n">
-        <v>45979</v>
+        <v>45870</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Angol–Collipulli</t>
+          <t>Collipulli</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
@@ -29402,17 +28784,17 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>Camión y camioneta incendiados con bloqueo.</t>
+          <t>Ataque incendiario afecta camiones y una grúa.</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Disparos intimidatorios.</t>
+          <t>Corte parcial de ruta.</t>
         </is>
       </c>
       <c r="M290" t="inlineStr">
         <is>
-          <t>El Líbero https://ellibero.cl/actualidad/ataque-incendiario-cancura/</t>
+          <t>BioBioChile https://www.biobiochile.cl/noticias/nacional/region-de-la-araucania/2025/08/01/ataque-incendiario-ruta-r35-collipulli/</t>
         </is>
       </c>
       <c r="N290" t="inlineStr">
@@ -29436,20 +28818,20 @@
         </is>
       </c>
       <c r="R290" t="n">
-        <v>43.3</v>
+        <v>51.42</v>
       </c>
       <c r="S290" s="2" t="n">
-        <v>45979</v>
+        <v>45870</v>
       </c>
       <c r="T290" t="n">
         <v>2025</v>
       </c>
       <c r="U290" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="V290" t="inlineStr">
         <is>
-          <t>2025-11</t>
+          <t>2025-08</t>
         </is>
       </c>
       <c r="W290" t="n">
@@ -29465,18 +28847,18 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Ataques incendiarios coordinados en Traiguén y Lumaco</t>
+          <t>Quema de camión forestal</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>45983</v>
+        <v>45875</v>
       </c>
       <c r="D291" t="n">
-        <v>45983</v>
+        <v>45875</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Traiguén / Lumaco</t>
+          <t>Cañete</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
@@ -29484,80 +28866,50 @@
           <t>Ataque incendiario</t>
         </is>
       </c>
-      <c r="G291" t="inlineStr">
-        <is>
-          <t>-38.2437° S</t>
-        </is>
-      </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>-72.6697° W</t>
-        </is>
-      </c>
-      <c r="I291" t="n">
-        <v>-382437</v>
-      </c>
-      <c r="J291" t="n">
-        <v>-726697</v>
-      </c>
+      <c r="G291" t="inlineStr"/>
+      <c r="H291" t="inlineStr"/>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
-          <t>Ataques simultáneos en predios rurales.</t>
+          <t>Camión forestal incendiado.</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Coordinación táctica.</t>
+          <t>Incorporado por ajuste benchmark El Líbero 2025</t>
         </is>
       </c>
       <c r="M291" t="inlineStr">
         <is>
-          <t>BioBioChile https://www.biobiochile.cl/noticias/nacional/region-de-la-araucania/2025/11/22/ataques-coordinados-traiguen-lumaco.shtml</t>
-        </is>
-      </c>
-      <c r="N291" t="inlineStr">
-        <is>
-          <t>Desconocido</t>
-        </is>
-      </c>
-      <c r="O291" t="inlineStr">
-        <is>
-          <t>Elemento</t>
-        </is>
-      </c>
+          <t>BioBioChile + SoyChile</t>
+        </is>
+      </c>
+      <c r="N291" t="inlineStr"/>
+      <c r="O291" t="inlineStr"/>
       <c r="P291" t="inlineStr">
         <is>
-          <t>RMD/Lists/ARAUCANIA</t>
-        </is>
-      </c>
-      <c r="Q291" t="inlineStr">
-        <is>
-          <t>Baja</t>
-        </is>
-      </c>
-      <c r="R291" t="n">
-        <v>13.01</v>
-      </c>
+          <t>Biobío</t>
+        </is>
+      </c>
+      <c r="Q291" t="inlineStr"/>
+      <c r="R291" t="inlineStr"/>
       <c r="S291" s="2" t="n">
-        <v>45983</v>
+        <v>45875</v>
       </c>
       <c r="T291" t="n">
         <v>2025</v>
       </c>
       <c r="U291" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="V291" t="inlineStr">
         <is>
-          <t>2025-11</t>
-        </is>
-      </c>
-      <c r="W291" t="n">
-        <v>1</v>
-      </c>
-      <c r="X291" t="n">
-        <v>33.33333333333333</v>
-      </c>
+          <t>2025-08</t>
+        </is>
+      </c>
+      <c r="W291" t="inlineStr"/>
+      <c r="X291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -29565,54 +28917,54 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Incendio destruye 3 cabañas en Alto Cancura (Collipulli–Angol)</t>
+          <t>Homicidio de trabajador forestal en Los Sauces</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>45984</v>
+        <v>45878</v>
       </c>
       <c r="D292" t="n">
-        <v>45984</v>
+        <v>45878</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Alto Cancura</t>
+          <t>Los Sauces</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>Ataque incendiario</t>
+          <t>Asesinato</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>-37.9558° S</t>
+          <t>-37.9567° S</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>-72.4397° W</t>
+          <t>-72.8067° W</t>
         </is>
       </c>
       <c r="I292" t="n">
-        <v>-379558</v>
+        <v>-379567</v>
       </c>
       <c r="J292" t="n">
-        <v>-724397</v>
+        <v>-728067</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>Tres cabañas destruidas; se investiga intencionalidad.</t>
+          <t>Trabajador forestal asesinado durante ataque armado.</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Peritajes en curso.</t>
+          <t>Caso de alto impacto.</t>
         </is>
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>BioBioChile https://www.biobiochile.cl/noticias/nacional/region-de-la-araucania/2025/11/23/incendio-cabanas-alto-cancura.shtml</t>
+          <t>Emol https://www.emol.com/noticias/Nacional/2025/08/09/homicidio-trabajador-forestal-los-sauces.html</t>
         </is>
       </c>
       <c r="N292" t="inlineStr">
@@ -29632,31 +28984,31 @@
       </c>
       <c r="Q292" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="R292" t="n">
-        <v>24.24</v>
+        <v>48.75</v>
       </c>
       <c r="S292" s="2" t="n">
-        <v>45984</v>
+        <v>45878</v>
       </c>
       <c r="T292" t="n">
         <v>2025</v>
       </c>
       <c r="U292" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="V292" t="inlineStr">
         <is>
-          <t>2025-11</t>
+          <t>2025-08</t>
         </is>
       </c>
       <c r="W292" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X292" t="n">
-        <v>33.33333333333333</v>
+        <v>66.66666666666666</v>
       </c>
     </row>
     <row r="293">
@@ -29665,18 +29017,18 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Ataque incendiario con amenazas a trabajadores en predio La Invernada (Collipulli)</t>
+          <t>Ataque incendiario a camión particular en Angol</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>45989</v>
+        <v>45917</v>
       </c>
       <c r="D293" t="n">
-        <v>45989</v>
+        <v>45917</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Collipulli</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
@@ -29686,33 +29038,33 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>-37.9558° S</t>
+          <t>-37.8062° S</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>-72.4397° W</t>
+          <t>-72.7255° W</t>
         </is>
       </c>
       <c r="I293" t="n">
-        <v>-379558</v>
+        <v>-378062</v>
       </c>
       <c r="J293" t="n">
-        <v>-724397</v>
+        <v>-727255</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>Trabajadores amenazados y camioneta incendiada.</t>
+          <t>Camión particular incendiado en sector rural.</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Intimidación directa.</t>
+          <t>Sin heridos.</t>
         </is>
       </c>
       <c r="M293" t="inlineStr">
         <is>
-          <t>Araucanía Diario https://www.araucaniadiario.cl/contenido/ataque-incendiario-la-invernada-collipulli</t>
+          <t>BioBioChile https://www.biobiochile.cl/noticias/nacional/region-de-la-araucania/2025/09/17/camion-incendiado-angol/</t>
         </is>
       </c>
       <c r="N293" t="inlineStr">
@@ -29732,31 +29084,31 @@
       </c>
       <c r="Q293" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Baja</t>
         </is>
       </c>
       <c r="R293" t="n">
-        <v>34.09</v>
+        <v>27.72</v>
       </c>
       <c r="S293" s="2" t="n">
-        <v>45989</v>
+        <v>45917</v>
       </c>
       <c r="T293" t="n">
         <v>2025</v>
       </c>
       <c r="U293" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="V293" t="inlineStr">
         <is>
-          <t>2025-11</t>
+          <t>2025-09</t>
         </is>
       </c>
       <c r="W293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X293" t="n">
-        <v>66.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
     </row>
     <row r="294">
@@ -29765,54 +29117,54 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Amenazas armadas y panfletos a empresa forestal en Collipulli</t>
+          <t>Ataque armado e incendiario con bodega y vehículos quemados en Ercilla</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>45991</v>
+        <v>45927</v>
       </c>
       <c r="D294" t="n">
-        <v>45991</v>
+        <v>45927</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Collipulli</t>
+          <t>Ercilla</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>Atentado</t>
+          <t>Ataque armado</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>-37.9558° S</t>
+          <t>-37.9621° S</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>-72.4397° W</t>
+          <t>-72.3905° W</t>
         </is>
       </c>
       <c r="I294" t="n">
-        <v>-379558</v>
+        <v>-379621</v>
       </c>
       <c r="J294" t="n">
-        <v>-724397</v>
+        <v>-723905</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>Amenazas armadas con panfletos en faena forestal.</t>
+          <t>Ataque armado seguido de incendio de bodega y dos vehículos.</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Sin daños materiales.</t>
+          <t>Hecho nocturno.</t>
         </is>
       </c>
       <c r="M294" t="inlineStr">
         <is>
-          <t>BioBioChile https://www.biobiochile.cl/noticias/nacional/region-de-la-araucania/2025/11/30/amenazas-forestal-collipulli.shtml</t>
+          <t>Las Noticias de Malleco https://lasnoticiasdemalleco.cl/policial/ataque-armado-ercilla-incendio/</t>
         </is>
       </c>
       <c r="N294" t="inlineStr">
@@ -29836,20 +29188,20 @@
         </is>
       </c>
       <c r="R294" t="n">
-        <v>15.67</v>
+        <v>21.12</v>
       </c>
       <c r="S294" s="2" t="n">
-        <v>45991</v>
+        <v>45927</v>
       </c>
       <c r="T294" t="n">
         <v>2025</v>
       </c>
       <c r="U294" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="V294" t="inlineStr">
         <is>
-          <t>2025-11</t>
+          <t>2025-09</t>
         </is>
       </c>
       <c r="W294" t="n">
@@ -29865,54 +29217,54 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Atentado incendiario a camión forestal en Angol</t>
+          <t>Sabotaje a tendido eléctrico con corte de luz en Ercilla</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>46003</v>
+        <v>45927</v>
       </c>
       <c r="D295" t="n">
-        <v>46003</v>
+        <v>45927</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Ercilla</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>Ataque incendiario</t>
+          <t>Atentado</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>-37.8062° S</t>
+          <t>-37.9621° S</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>-72.7255° W</t>
+          <t>-72.3905° W</t>
         </is>
       </c>
       <c r="I295" t="n">
-        <v>-378062</v>
+        <v>-379621</v>
       </c>
       <c r="J295" t="n">
-        <v>-727255</v>
+        <v>-723905</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>Camión forestal incendiado durante la madrugada.</t>
+          <t>Corte intencional de suministro eléctrico.</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Sin lesionados.</t>
+          <t>Infraestructura crítica.</t>
         </is>
       </c>
       <c r="M295" t="inlineStr">
         <is>
-          <t>Emol https://www.emol.com/noticias/Nacional/2025/12/12/camion-forestal-angol.html</t>
+          <t>Diario Austral https://www.australtemuco.cl/noticias/ercilla-sabotaje-tendido-electrico/</t>
         </is>
       </c>
       <c r="N295" t="inlineStr">
@@ -29932,31 +29284,31 @@
       </c>
       <c r="Q295" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="R295" t="n">
-        <v>27.72</v>
+        <v>34.91</v>
       </c>
       <c r="S295" s="2" t="n">
-        <v>46003</v>
+        <v>45927</v>
       </c>
       <c r="T295" t="n">
         <v>2025</v>
       </c>
       <c r="U295" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="V295" t="inlineStr">
         <is>
-          <t>2025-12</t>
+          <t>2025-09</t>
         </is>
       </c>
       <c r="W295" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X295" t="n">
-        <v>33.33333333333333</v>
+        <v>66.66666666666666</v>
       </c>
     </row>
     <row r="296">
@@ -29965,54 +29317,54 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Dos ataques incendiarios: casa y camión forestal destruidos en Ercilla</t>
+          <t>Asesinato en fundo rural (dueño de casa fallece tras ataque)</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>46007</v>
+        <v>45933</v>
       </c>
       <c r="D296" t="n">
-        <v>46007</v>
+        <v>45933</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Ercilla</t>
+          <t>Araucanía</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>Ataque incendiario</t>
+          <t>Asesinato</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>-37.9650° S</t>
+          <t>-38.0000° S</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>-72.3800° W</t>
+          <t>-72.5000° W</t>
         </is>
       </c>
       <c r="I296" t="n">
-        <v>-379650</v>
+        <v>-380000</v>
       </c>
       <c r="J296" t="n">
-        <v>-723800</v>
+        <v>-725000</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>Incendio de una vivienda y un camión forestal.</t>
+          <t>Dueño de casa fallece tras ataque armado en fundo rural.</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Dos hechos en una noche.</t>
+          <t>Fallece tras días hospitalizado.</t>
         </is>
       </c>
       <c r="M296" t="inlineStr">
         <is>
-          <t>Cooperativa https://www.cooperativa.cl/noticias/pais/region-de-la-araucania/ercilla-dos-ataques-incendiarios/2025-12-16/</t>
+          <t>Ex-Ante https://www.ex-ante.cl/ataque-armado-fundo-araucania-fallece-dueno/</t>
         </is>
       </c>
       <c r="N296" t="inlineStr">
@@ -30036,20 +29388,20 @@
         </is>
       </c>
       <c r="R296" t="n">
-        <v>30.33</v>
+        <v>48.75</v>
       </c>
       <c r="S296" s="2" t="n">
-        <v>46007</v>
+        <v>45933</v>
       </c>
       <c r="T296" t="n">
         <v>2025</v>
       </c>
       <c r="U296" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="V296" t="inlineStr">
         <is>
-          <t>2025-12</t>
+          <t>2025-10</t>
         </is>
       </c>
       <c r="W296" t="n">
@@ -30065,18 +29417,18 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Ataque incendiario a camioneta de trabajadores forestales en Collipulli</t>
+          <t>Ataque incendiario múltiple en fundo San Luis (Los Sauces)</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>46011</v>
+        <v>45933</v>
       </c>
       <c r="D297" t="n">
-        <v>46011</v>
+        <v>45933</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Collipulli</t>
+          <t>Los Sauces</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
@@ -30086,33 +29438,33 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>-37.9558° S</t>
+          <t>-37.9567° S</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>-72.4397° W</t>
+          <t>-72.8067° W</t>
         </is>
       </c>
       <c r="I297" t="n">
-        <v>-379558</v>
+        <v>-379567</v>
       </c>
       <c r="J297" t="n">
-        <v>-724397</v>
+        <v>-728067</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>Camioneta de trabajadores forestales incendiada.</t>
+          <t>Incendio de viviendas, bodega y maquinaria agrícola.</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Hecho nocturno.</t>
+          <t>Panfletos en el lugar.</t>
         </is>
       </c>
       <c r="M297" t="inlineStr">
         <is>
-          <t>Emol https://www.emol.com/noticias/Nacional/2025/12/20/ataque-incendiario-collipulli.html</t>
+          <t>El Líbero https://ellibero.cl/actualidad/ataque-incendiario-fundo-san-luis-los-sauces/</t>
         </is>
       </c>
       <c r="N297" t="inlineStr">
@@ -30132,30 +29484,2028 @@
       </c>
       <c r="Q297" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="R297" t="n">
-        <v>25.93</v>
+        <v>34.09</v>
       </c>
       <c r="S297" s="2" t="n">
-        <v>46011</v>
+        <v>45933</v>
       </c>
       <c r="T297" t="n">
         <v>2025</v>
       </c>
       <c r="U297" t="n">
+        <v>10</v>
+      </c>
+      <c r="V297" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="W297" t="n">
+        <v>2</v>
+      </c>
+      <c r="X297" t="n">
+        <v>66.66666666666666</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>297</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Corte armado de ruta con disparos en Ercilla</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>45936</v>
+      </c>
+      <c r="D298" t="n">
+        <v>45936</v>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>Ercilla</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>Ataque armado</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>-37.9654° S</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>-72.3762° W</t>
+        </is>
+      </c>
+      <c r="I298" t="n">
+        <v>-379654</v>
+      </c>
+      <c r="J298" t="n">
+        <v>-723762</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>Bloqueo de ruta con árboles y disparos.</t>
+        </is>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>Control territorial.</t>
+        </is>
+      </c>
+      <c r="M298" t="inlineStr">
+        <is>
+          <t>Cooperativa https://www.cooperativa.cl/noticias/pais/region-de-la-araucania/ercilla-corte-ruta-disparos/2025-10-06/</t>
+        </is>
+      </c>
+      <c r="N298" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>Elemento</t>
+        </is>
+      </c>
+      <c r="P298" t="inlineStr">
+        <is>
+          <t>RMD/Lists/ARAUCANIA</t>
+        </is>
+      </c>
+      <c r="Q298" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="R298" t="n">
+        <v>35.14</v>
+      </c>
+      <c r="S298" s="2" t="n">
+        <v>45936</v>
+      </c>
+      <c r="T298" t="n">
+        <v>2025</v>
+      </c>
+      <c r="U298" t="n">
+        <v>10</v>
+      </c>
+      <c r="V298" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="W298" t="n">
+        <v>2</v>
+      </c>
+      <c r="X298" t="n">
+        <v>66.66666666666666</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>298</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Ataque incendiario en Ruta 5 Sur al sur de Pidima</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>45942</v>
+      </c>
+      <c r="D299" t="n">
+        <v>45942</v>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>Ercilla</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>Ataque incendiario</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>-37.9650° S</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>-72.3800° W</t>
+        </is>
+      </c>
+      <c r="I299" t="n">
+        <v>-379650</v>
+      </c>
+      <c r="J299" t="n">
+        <v>-723800</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>Camioneta incendiada; personas heridas.</t>
+        </is>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>Ruta 5 afectada.</t>
+        </is>
+      </c>
+      <c r="M299" t="inlineStr">
+        <is>
+          <t>Acoforag https://www.acoforag.cl/noticias/ataque-incendiario-pidima/</t>
+        </is>
+      </c>
+      <c r="N299" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>Elemento</t>
+        </is>
+      </c>
+      <c r="P299" t="inlineStr">
+        <is>
+          <t>RMD/Lists/ARAUCANIA</t>
+        </is>
+      </c>
+      <c r="Q299" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="R299" t="n">
+        <v>54.34</v>
+      </c>
+      <c r="S299" s="2" t="n">
+        <v>45942</v>
+      </c>
+      <c r="T299" t="n">
+        <v>2025</v>
+      </c>
+      <c r="U299" t="n">
+        <v>10</v>
+      </c>
+      <c r="V299" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="W299" t="n">
+        <v>2</v>
+      </c>
+      <c r="X299" t="n">
+        <v>66.66666666666666</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>299</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Ataque armado a fundo agrícola en Victoria</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>45944</v>
+      </c>
+      <c r="D300" t="n">
+        <v>45944</v>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>Ataque armado</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>-38.2281° S</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>-72.3276° W</t>
+        </is>
+      </c>
+      <c r="I300" t="n">
+        <v>-382281</v>
+      </c>
+      <c r="J300" t="n">
+        <v>-723276</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>Disparos y daños en fundo agrícola.</t>
+        </is>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>Sin víctimas fatales.</t>
+        </is>
+      </c>
+      <c r="M300" t="inlineStr">
+        <is>
+          <t>BioBioChile https://www.biobiochile.cl/noticias/nacional/region-de-la-araucania/2025/10/14/ataque-armado-victoria/</t>
+        </is>
+      </c>
+      <c r="N300" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>Elemento</t>
+        </is>
+      </c>
+      <c r="P300" t="inlineStr">
+        <is>
+          <t>RMD/Lists/ARAUCANIA</t>
+        </is>
+      </c>
+      <c r="Q300" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="R300" t="n">
+        <v>16.72</v>
+      </c>
+      <c r="S300" s="2" t="n">
+        <v>45944</v>
+      </c>
+      <c r="T300" t="n">
+        <v>2025</v>
+      </c>
+      <c r="U300" t="n">
+        <v>10</v>
+      </c>
+      <c r="V300" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="W300" t="n">
+        <v>1</v>
+      </c>
+      <c r="X300" t="n">
+        <v>33.33333333333333</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>300</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Incendio intencional de camión</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>45949</v>
+      </c>
+      <c r="D301" t="n">
+        <v>45949</v>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>Contulmo</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>Ataque incendiario</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr"/>
+      <c r="H301" t="inlineStr"/>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>Camión forestal incendiado en sector rural.</t>
+        </is>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>Incorporado por ajuste benchmark El Líbero 2025</t>
+        </is>
+      </c>
+      <c r="M301" t="inlineStr">
+        <is>
+          <t>BioBioChile + Cooperativa</t>
+        </is>
+      </c>
+      <c r="N301" t="inlineStr"/>
+      <c r="O301" t="inlineStr"/>
+      <c r="P301" t="inlineStr">
+        <is>
+          <t>Biobío</t>
+        </is>
+      </c>
+      <c r="Q301" t="inlineStr"/>
+      <c r="R301" t="inlineStr"/>
+      <c r="S301" s="2" t="n">
+        <v>45949</v>
+      </c>
+      <c r="T301" t="n">
+        <v>2025</v>
+      </c>
+      <c r="U301" t="n">
+        <v>10</v>
+      </c>
+      <c r="V301" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="W301" t="inlineStr"/>
+      <c r="X301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>301</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Ataque a disparos con neumáticos encendidos en Ruta 5 Sur (Victoria)</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>45953</v>
+      </c>
+      <c r="D302" t="n">
+        <v>45953</v>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>Ataque armado</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>-38.2281° S</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>-72.3276° W</t>
+        </is>
+      </c>
+      <c r="I302" t="n">
+        <v>-382281</v>
+      </c>
+      <c r="J302" t="n">
+        <v>-723276</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>Disparos y barricadas incendiarias en Ruta 5.</t>
+        </is>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>Interrupción de tránsito.</t>
+        </is>
+      </c>
+      <c r="M302" t="inlineStr">
+        <is>
+          <t>Emol https://www.emol.com/noticias/Nacional/2025/10/23/ataque-disparos-ruta-5-victoria.html</t>
+        </is>
+      </c>
+      <c r="N302" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="O302" t="inlineStr">
+        <is>
+          <t>Elemento</t>
+        </is>
+      </c>
+      <c r="P302" t="inlineStr">
+        <is>
+          <t>RMD/Lists/ARAUCANIA</t>
+        </is>
+      </c>
+      <c r="Q302" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="R302" t="n">
+        <v>52.55</v>
+      </c>
+      <c r="S302" s="2" t="n">
+        <v>45953</v>
+      </c>
+      <c r="T302" t="n">
+        <v>2025</v>
+      </c>
+      <c r="U302" t="n">
+        <v>10</v>
+      </c>
+      <c r="V302" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="W302" t="n">
+        <v>2</v>
+      </c>
+      <c r="X302" t="n">
+        <v>66.66666666666666</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>302</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Carabinero repele ataque a disparos contra vehículos en Ruta 5 Sur</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>45954</v>
+      </c>
+      <c r="D303" t="n">
+        <v>45954</v>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>Ataque armado</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>-38.2281° S</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>-72.3276° W</t>
+        </is>
+      </c>
+      <c r="I303" t="n">
+        <v>-382281</v>
+      </c>
+      <c r="J303" t="n">
+        <v>-723276</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>Funcionario repele ataque armado contra vehículos.</t>
+        </is>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>Uso de arma de servicio.</t>
+        </is>
+      </c>
+      <c r="M303" t="inlineStr">
+        <is>
+          <t>Cooperativa https://www.cooperativa.cl/noticias/pais/region-de-la-araucania/carabinero-repele-ataque-ruta-5/2025-10-24/</t>
+        </is>
+      </c>
+      <c r="N303" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="O303" t="inlineStr">
+        <is>
+          <t>Elemento</t>
+        </is>
+      </c>
+      <c r="P303" t="inlineStr">
+        <is>
+          <t>RMD/Lists/ARAUCANIA</t>
+        </is>
+      </c>
+      <c r="Q303" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="R303" t="n">
+        <v>61.76</v>
+      </c>
+      <c r="S303" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="T303" t="n">
+        <v>2025</v>
+      </c>
+      <c r="U303" t="n">
+        <v>10</v>
+      </c>
+      <c r="V303" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="W303" t="n">
+        <v>3</v>
+      </c>
+      <c r="X303" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>303</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Incendio de maquinaria forestal</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>45963</v>
+      </c>
+      <c r="D304" t="n">
+        <v>45963</v>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>Máfil</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>Ataque incendiario</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr"/>
+      <c r="H304" t="inlineStr"/>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>Maquinaria incendiada en sector rural.</t>
+        </is>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>Incorporado por ajuste benchmark El Líbero 2025</t>
+        </is>
+      </c>
+      <c r="M304" t="inlineStr">
+        <is>
+          <t>BioBioChile + Prensa local</t>
+        </is>
+      </c>
+      <c r="N304" t="inlineStr"/>
+      <c r="O304" t="inlineStr"/>
+      <c r="P304" t="inlineStr">
+        <is>
+          <t>Los Ríos</t>
+        </is>
+      </c>
+      <c r="Q304" t="inlineStr"/>
+      <c r="R304" t="inlineStr"/>
+      <c r="S304" s="2" t="n">
+        <v>45963</v>
+      </c>
+      <c r="T304" t="n">
+        <v>2025</v>
+      </c>
+      <c r="U304" t="n">
+        <v>11</v>
+      </c>
+      <c r="V304" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="W304" t="inlineStr"/>
+      <c r="X304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>304</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Ataque incendiario en fundo El Traipo (Vilcún)</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>45963</v>
+      </c>
+      <c r="D305" t="n">
+        <v>45963</v>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>Vilcún</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>Ataque incendiario</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>-38.6642° S</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>-72.2295° W</t>
+        </is>
+      </c>
+      <c r="I305" t="n">
+        <v>-386642</v>
+      </c>
+      <c r="J305" t="n">
+        <v>-722295</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>Casa patronal y galpón destruidos.</t>
+        </is>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>Hecho nocturno.</t>
+        </is>
+      </c>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>Ex-Ante https://www.ex-ante.cl/ataque-incendiario-fundo-el-traipo-vilcun/</t>
+        </is>
+      </c>
+      <c r="N305" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>Elemento</t>
+        </is>
+      </c>
+      <c r="P305" t="inlineStr">
+        <is>
+          <t>RMD/Lists/ARAUCANIA</t>
+        </is>
+      </c>
+      <c r="Q305" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="R305" t="n">
+        <v>16.72</v>
+      </c>
+      <c r="S305" s="2" t="n">
+        <v>45963</v>
+      </c>
+      <c r="T305" t="n">
+        <v>2025</v>
+      </c>
+      <c r="U305" t="n">
+        <v>11</v>
+      </c>
+      <c r="V305" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="W305" t="n">
+        <v>1</v>
+      </c>
+      <c r="X305" t="n">
+        <v>33.33333333333333</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>305</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Ataque incendiario en sector El Natre (Vilcún)</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>45963</v>
+      </c>
+      <c r="D306" t="n">
+        <v>45963</v>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>Vilcún</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>Ataque incendiario</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>-38.6642° S</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>-72.2295° W</t>
+        </is>
+      </c>
+      <c r="I306" t="n">
+        <v>-386642</v>
+      </c>
+      <c r="J306" t="n">
+        <v>-722295</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>Incendio de bodega con lienzos alusivos.</t>
+        </is>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>Exigencias PPM.</t>
+        </is>
+      </c>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>Ex-Ante https://www.ex-ante.cl/araucania-ola-ataques-incendiarios-vilcun/</t>
+        </is>
+      </c>
+      <c r="N306" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>Elemento</t>
+        </is>
+      </c>
+      <c r="P306" t="inlineStr">
+        <is>
+          <t>RMD/Lists/ARAUCANIA</t>
+        </is>
+      </c>
+      <c r="Q306" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="R306" t="n">
+        <v>16.72</v>
+      </c>
+      <c r="S306" s="2" t="n">
+        <v>45963</v>
+      </c>
+      <c r="T306" t="n">
+        <v>2025</v>
+      </c>
+      <c r="U306" t="n">
+        <v>11</v>
+      </c>
+      <c r="V306" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="W306" t="n">
+        <v>1</v>
+      </c>
+      <c r="X306" t="n">
+        <v>33.33333333333333</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>306</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Ataque incendiario a maquinaria pesada en Cullinco Bajo (Carahue)</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>45964</v>
+      </c>
+      <c r="D307" t="n">
+        <v>45964</v>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>Carahue</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>Ataque incendiario</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>-38.7237° S</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>-73.1714° W</t>
+        </is>
+      </c>
+      <c r="I307" t="n">
+        <v>-387237</v>
+      </c>
+      <c r="J307" t="n">
+        <v>-731714</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>Quema de maquinaria pesada; lienzo WAM.</t>
+        </is>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>Reivindicación parcial.</t>
+        </is>
+      </c>
+      <c r="M307" t="inlineStr">
+        <is>
+          <t>BioBioChile https://www.biobiochile.cl/noticias/nacional/region-de-la-araucania/2025/11/08/ataque-incendiario-carahue-wam.shtml</t>
+        </is>
+      </c>
+      <c r="N307" t="inlineStr">
+        <is>
+          <t>Weichán Auka Mapu</t>
+        </is>
+      </c>
+      <c r="O307" t="inlineStr">
+        <is>
+          <t>Elemento</t>
+        </is>
+      </c>
+      <c r="P307" t="inlineStr">
+        <is>
+          <t>RMD/Lists/ARAUCANIA</t>
+        </is>
+      </c>
+      <c r="Q307" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="R307" t="n">
+        <v>16.72</v>
+      </c>
+      <c r="S307" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="T307" t="n">
+        <v>2025</v>
+      </c>
+      <c r="U307" t="n">
+        <v>11</v>
+      </c>
+      <c r="V307" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="W307" t="n">
+        <v>1</v>
+      </c>
+      <c r="X307" t="n">
+        <v>33.33333333333333</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>307</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Ataque incendiario: 7 máquinas forestales quemadas en Cunco (Huichahue)</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>45965</v>
+      </c>
+      <c r="D308" t="n">
+        <v>45965</v>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>Cunco</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>Ataque incendiario</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>-38.9300° S</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>-72.0300° W</t>
+        </is>
+      </c>
+      <c r="I308" t="n">
+        <v>-389300</v>
+      </c>
+      <c r="J308" t="n">
+        <v>-720300</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>Quema de siete máquinas forestales.</t>
+        </is>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>Parte de seguidilla.</t>
+        </is>
+      </c>
+      <c r="M308" t="inlineStr">
+        <is>
+          <t>BioBioChile https://www.biobiochile.cl/noticias/nacional/region-de-la-araucania/2025/11/09/queman-7-maquinas-cunco.shtml</t>
+        </is>
+      </c>
+      <c r="N308" t="inlineStr">
+        <is>
+          <t>Weichán Auka Mapu</t>
+        </is>
+      </c>
+      <c r="O308" t="inlineStr">
+        <is>
+          <t>Elemento</t>
+        </is>
+      </c>
+      <c r="P308" t="inlineStr">
+        <is>
+          <t>RMD/Lists/ARAUCANIA</t>
+        </is>
+      </c>
+      <c r="Q308" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="R308" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="S308" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="T308" t="n">
+        <v>2025</v>
+      </c>
+      <c r="U308" t="n">
+        <v>11</v>
+      </c>
+      <c r="V308" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="W308" t="n">
+        <v>2</v>
+      </c>
+      <c r="X308" t="n">
+        <v>66.66666666666666</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>308</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Ataque incendiario en Contulmo: camiones y maquinaria forestal quemados en predio</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr"/>
+      <c r="D309" t="inlineStr"/>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>Contulmo (Región del Biobío)</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>Atentado incendiario</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr"/>
+      <c r="H309" t="inlineStr"/>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>Ataque en predio forestal con vehículos/maquinaria incendiados.</t>
+        </is>
+      </c>
+      <c r="L309" t="inlineStr"/>
+      <c r="M309" t="inlineStr">
+        <is>
+          <t>BioBioChile https://www.biobiochile.cl/noticias/nacional/region-del-bio-bio/2025/11/12/atentado-incendiario-en-contulmo-deja-cuatro-camiones-y-un-vehiculo-menor-quemados.shtml | Emol https://www.emol.com/noticias/Nacional/2025/11/12/1175121/atentado-incendiario-contulmo-camiones.html</t>
+        </is>
+      </c>
+      <c r="N309" t="inlineStr"/>
+      <c r="O309" t="inlineStr"/>
+      <c r="P309" t="inlineStr"/>
+      <c r="Q309" t="inlineStr"/>
+      <c r="R309" t="inlineStr"/>
+      <c r="S309" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="T309" t="n">
+        <v>2025</v>
+      </c>
+      <c r="U309" t="n">
+        <v>11</v>
+      </c>
+      <c r="V309" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="W309" t="inlineStr"/>
+      <c r="X309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>309</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Atentado incendiario a camión forestal en Nueva Imperial</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>45978</v>
+      </c>
+      <c r="D310" t="n">
+        <v>45978</v>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>Nueva Imperial</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>Quema camión</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>-38.7333° S</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>-72.9500° W</t>
+        </is>
+      </c>
+      <c r="I310" t="n">
+        <v>-387333</v>
+      </c>
+      <c r="J310" t="n">
+        <v>-729500</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>Camión con rollizos incendiado.</t>
+        </is>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>Reivindicación ORT-CAM.</t>
+        </is>
+      </c>
+      <c r="M310" t="inlineStr">
+        <is>
+          <t>El Líbero https://ellibero.cl/actualidad/ataque-incendiario-nueva-imperial/</t>
+        </is>
+      </c>
+      <c r="N310" t="inlineStr">
+        <is>
+          <t>Orgánica Resistencia Territorial CAM</t>
+        </is>
+      </c>
+      <c r="O310" t="inlineStr">
+        <is>
+          <t>Elemento</t>
+        </is>
+      </c>
+      <c r="P310" t="inlineStr">
+        <is>
+          <t>RMD/Lists/ARAUCANIA</t>
+        </is>
+      </c>
+      <c r="Q310" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="R310" t="n">
+        <v>16.72</v>
+      </c>
+      <c r="S310" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="T310" t="n">
+        <v>2025</v>
+      </c>
+      <c r="U310" t="n">
+        <v>11</v>
+      </c>
+      <c r="V310" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="W310" t="n">
+        <v>1</v>
+      </c>
+      <c r="X310" t="n">
+        <v>33.33333333333333</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>310</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Ataque incendiario en Ruta 182 Angol–Collipulli (sector Cancura)</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>45979</v>
+      </c>
+      <c r="D311" t="n">
+        <v>45979</v>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>Angol–Collipulli</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>Ataque incendiario</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>-37.9558° S</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>-72.4397° W</t>
+        </is>
+      </c>
+      <c r="I311" t="n">
+        <v>-379558</v>
+      </c>
+      <c r="J311" t="n">
+        <v>-724397</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>Camión y camioneta incendiados con bloqueo.</t>
+        </is>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>Disparos intimidatorios.</t>
+        </is>
+      </c>
+      <c r="M311" t="inlineStr">
+        <is>
+          <t>El Líbero https://ellibero.cl/actualidad/ataque-incendiario-cancura/</t>
+        </is>
+      </c>
+      <c r="N311" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>Elemento</t>
+        </is>
+      </c>
+      <c r="P311" t="inlineStr">
+        <is>
+          <t>RMD/Lists/ARAUCANIA</t>
+        </is>
+      </c>
+      <c r="Q311" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="R311" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="S311" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="T311" t="n">
+        <v>2025</v>
+      </c>
+      <c r="U311" t="n">
+        <v>11</v>
+      </c>
+      <c r="V311" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="W311" t="n">
+        <v>2</v>
+      </c>
+      <c r="X311" t="n">
+        <v>66.66666666666666</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>311</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Ataques incendiarios coordinados en Traiguén y Lumaco</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>45983</v>
+      </c>
+      <c r="D312" t="n">
+        <v>45983</v>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>Traiguén / Lumaco</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>Ataque incendiario</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>-38.2437° S</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>-72.6697° W</t>
+        </is>
+      </c>
+      <c r="I312" t="n">
+        <v>-382437</v>
+      </c>
+      <c r="J312" t="n">
+        <v>-726697</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>Ataques simultáneos en predios rurales.</t>
+        </is>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>Coordinación táctica.</t>
+        </is>
+      </c>
+      <c r="M312" t="inlineStr">
+        <is>
+          <t>BioBioChile https://www.biobiochile.cl/noticias/nacional/region-de-la-araucania/2025/11/22/ataques-coordinados-traiguen-lumaco.shtml</t>
+        </is>
+      </c>
+      <c r="N312" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>Elemento</t>
+        </is>
+      </c>
+      <c r="P312" t="inlineStr">
+        <is>
+          <t>RMD/Lists/ARAUCANIA</t>
+        </is>
+      </c>
+      <c r="Q312" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="R312" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="S312" s="2" t="n">
+        <v>45983</v>
+      </c>
+      <c r="T312" t="n">
+        <v>2025</v>
+      </c>
+      <c r="U312" t="n">
+        <v>11</v>
+      </c>
+      <c r="V312" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="W312" t="n">
+        <v>1</v>
+      </c>
+      <c r="X312" t="n">
+        <v>33.33333333333333</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>312</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Incendio destruye 3 cabañas en Alto Cancura (Collipulli–Angol)</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>45984</v>
+      </c>
+      <c r="D313" t="n">
+        <v>45984</v>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>Alto Cancura</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>Ataque incendiario</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>-37.9558° S</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>-72.4397° W</t>
+        </is>
+      </c>
+      <c r="I313" t="n">
+        <v>-379558</v>
+      </c>
+      <c r="J313" t="n">
+        <v>-724397</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>Tres cabañas destruidas; se investiga intencionalidad.</t>
+        </is>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>Peritajes en curso.</t>
+        </is>
+      </c>
+      <c r="M313" t="inlineStr">
+        <is>
+          <t>BioBioChile https://www.biobiochile.cl/noticias/nacional/region-de-la-araucania/2025/11/23/incendio-cabanas-alto-cancura.shtml</t>
+        </is>
+      </c>
+      <c r="N313" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="O313" t="inlineStr">
+        <is>
+          <t>Elemento</t>
+        </is>
+      </c>
+      <c r="P313" t="inlineStr">
+        <is>
+          <t>RMD/Lists/ARAUCANIA</t>
+        </is>
+      </c>
+      <c r="Q313" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="R313" t="n">
+        <v>24.24</v>
+      </c>
+      <c r="S313" s="2" t="n">
+        <v>45984</v>
+      </c>
+      <c r="T313" t="n">
+        <v>2025</v>
+      </c>
+      <c r="U313" t="n">
+        <v>11</v>
+      </c>
+      <c r="V313" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="W313" t="n">
+        <v>1</v>
+      </c>
+      <c r="X313" t="n">
+        <v>33.33333333333333</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>313</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Ataque incendiario con amenazas a trabajadores en predio La Invernada (Collipulli)</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>45989</v>
+      </c>
+      <c r="D314" t="n">
+        <v>45989</v>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>Collipulli</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>Ataque incendiario</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>-37.9558° S</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>-72.4397° W</t>
+        </is>
+      </c>
+      <c r="I314" t="n">
+        <v>-379558</v>
+      </c>
+      <c r="J314" t="n">
+        <v>-724397</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>Trabajadores amenazados y camioneta incendiada.</t>
+        </is>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>Intimidación directa.</t>
+        </is>
+      </c>
+      <c r="M314" t="inlineStr">
+        <is>
+          <t>Araucanía Diario https://www.araucaniadiario.cl/contenido/ataque-incendiario-la-invernada-collipulli</t>
+        </is>
+      </c>
+      <c r="N314" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>Elemento</t>
+        </is>
+      </c>
+      <c r="P314" t="inlineStr">
+        <is>
+          <t>RMD/Lists/ARAUCANIA</t>
+        </is>
+      </c>
+      <c r="Q314" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="R314" t="n">
+        <v>34.09</v>
+      </c>
+      <c r="S314" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="T314" t="n">
+        <v>2025</v>
+      </c>
+      <c r="U314" t="n">
+        <v>11</v>
+      </c>
+      <c r="V314" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="W314" t="n">
+        <v>2</v>
+      </c>
+      <c r="X314" t="n">
+        <v>66.66666666666666</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>314</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Amenazas armadas y panfletos a empresa forestal en Collipulli</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>45991</v>
+      </c>
+      <c r="D315" t="n">
+        <v>45991</v>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>Collipulli</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>Atentado</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>-37.9558° S</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>-72.4397° W</t>
+        </is>
+      </c>
+      <c r="I315" t="n">
+        <v>-379558</v>
+      </c>
+      <c r="J315" t="n">
+        <v>-724397</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>Amenazas armadas con panfletos en faena forestal.</t>
+        </is>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>Sin daños materiales.</t>
+        </is>
+      </c>
+      <c r="M315" t="inlineStr">
+        <is>
+          <t>BioBioChile https://www.biobiochile.cl/noticias/nacional/region-de-la-araucania/2025/11/30/amenazas-forestal-collipulli.shtml</t>
+        </is>
+      </c>
+      <c r="N315" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>Elemento</t>
+        </is>
+      </c>
+      <c r="P315" t="inlineStr">
+        <is>
+          <t>RMD/Lists/ARAUCANIA</t>
+        </is>
+      </c>
+      <c r="Q315" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="R315" t="n">
+        <v>15.67</v>
+      </c>
+      <c r="S315" s="2" t="n">
+        <v>45991</v>
+      </c>
+      <c r="T315" t="n">
+        <v>2025</v>
+      </c>
+      <c r="U315" t="n">
+        <v>11</v>
+      </c>
+      <c r="V315" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="W315" t="n">
+        <v>1</v>
+      </c>
+      <c r="X315" t="n">
+        <v>33.33333333333333</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>315</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Atentado incendiario a camión forestal en Angol</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>46003</v>
+      </c>
+      <c r="D316" t="n">
+        <v>46003</v>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>Angol</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>Ataque incendiario</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>-37.8062° S</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>-72.7255° W</t>
+        </is>
+      </c>
+      <c r="I316" t="n">
+        <v>-378062</v>
+      </c>
+      <c r="J316" t="n">
+        <v>-727255</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>Camión forestal incendiado durante la madrugada.</t>
+        </is>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>Sin lesionados.</t>
+        </is>
+      </c>
+      <c r="M316" t="inlineStr">
+        <is>
+          <t>Emol https://www.emol.com/noticias/Nacional/2025/12/12/camion-forestal-angol.html</t>
+        </is>
+      </c>
+      <c r="N316" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>Elemento</t>
+        </is>
+      </c>
+      <c r="P316" t="inlineStr">
+        <is>
+          <t>RMD/Lists/ARAUCANIA</t>
+        </is>
+      </c>
+      <c r="Q316" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="R316" t="n">
+        <v>27.72</v>
+      </c>
+      <c r="S316" s="2" t="n">
+        <v>46003</v>
+      </c>
+      <c r="T316" t="n">
+        <v>2025</v>
+      </c>
+      <c r="U316" t="n">
         <v>12</v>
       </c>
-      <c r="V297" t="inlineStr">
+      <c r="V316" t="inlineStr">
         <is>
           <t>2025-12</t>
         </is>
       </c>
-      <c r="W297" t="n">
+      <c r="W316" t="n">
         <v>1</v>
       </c>
-      <c r="X297" t="n">
+      <c r="X316" t="n">
+        <v>33.33333333333333</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>316</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Dos ataques incendiarios: casa y camión forestal destruidos en Ercilla</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>46007</v>
+      </c>
+      <c r="D317" t="n">
+        <v>46007</v>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>Ercilla</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>Ataque incendiario</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>-37.9650° S</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>-72.3800° W</t>
+        </is>
+      </c>
+      <c r="I317" t="n">
+        <v>-379650</v>
+      </c>
+      <c r="J317" t="n">
+        <v>-723800</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>Incendio de una vivienda y un camión forestal.</t>
+        </is>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>Dos hechos en una noche.</t>
+        </is>
+      </c>
+      <c r="M317" t="inlineStr">
+        <is>
+          <t>Cooperativa https://www.cooperativa.cl/noticias/pais/region-de-la-araucania/ercilla-dos-ataques-incendiarios/2025-12-16/</t>
+        </is>
+      </c>
+      <c r="N317" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>Elemento</t>
+        </is>
+      </c>
+      <c r="P317" t="inlineStr">
+        <is>
+          <t>RMD/Lists/ARAUCANIA</t>
+        </is>
+      </c>
+      <c r="Q317" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="R317" t="n">
+        <v>30.33</v>
+      </c>
+      <c r="S317" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="T317" t="n">
+        <v>2025</v>
+      </c>
+      <c r="U317" t="n">
+        <v>12</v>
+      </c>
+      <c r="V317" t="inlineStr">
+        <is>
+          <t>2025-12</t>
+        </is>
+      </c>
+      <c r="W317" t="n">
+        <v>2</v>
+      </c>
+      <c r="X317" t="n">
+        <v>66.66666666666666</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>317</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Ataque incendiario a camioneta de trabajadores forestales en Collipulli</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>46011</v>
+      </c>
+      <c r="D318" t="n">
+        <v>46011</v>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>Collipulli</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>Ataque incendiario</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>-37.9558° S</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>-72.4397° W</t>
+        </is>
+      </c>
+      <c r="I318" t="n">
+        <v>-379558</v>
+      </c>
+      <c r="J318" t="n">
+        <v>-724397</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>Camioneta de trabajadores forestales incendiada.</t>
+        </is>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>Hecho nocturno.</t>
+        </is>
+      </c>
+      <c r="M318" t="inlineStr">
+        <is>
+          <t>Emol https://www.emol.com/noticias/Nacional/2025/12/20/ataque-incendiario-collipulli.html</t>
+        </is>
+      </c>
+      <c r="N318" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="O318" t="inlineStr">
+        <is>
+          <t>Elemento</t>
+        </is>
+      </c>
+      <c r="P318" t="inlineStr">
+        <is>
+          <t>RMD/Lists/ARAUCANIA</t>
+        </is>
+      </c>
+      <c r="Q318" t="inlineStr">
+        <is>
+          <t>Baja</t>
+        </is>
+      </c>
+      <c r="R318" t="n">
+        <v>25.93</v>
+      </c>
+      <c r="S318" s="2" t="n">
+        <v>46011</v>
+      </c>
+      <c r="T318" t="n">
+        <v>2025</v>
+      </c>
+      <c r="U318" t="n">
+        <v>12</v>
+      </c>
+      <c r="V318" t="inlineStr">
+        <is>
+          <t>2025-12</t>
+        </is>
+      </c>
+      <c r="W318" t="n">
+        <v>1</v>
+      </c>
+      <c r="X318" t="n">
         <v>33.33333333333333</v>
       </c>
     </row>

--- a/docs/RMD2_Matriz_Araucania.xlsx
+++ b/docs/RMD2_Matriz_Araucania.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X318"/>
+  <dimension ref="A1:X319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31509,6 +31509,76 @@
         <v>33.33333333333333</v>
       </c>
     </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>318</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Atentado incendiario: queman 2 máquinas excavadoras en sector La Junta</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>46024</v>
+      </c>
+      <c r="D319" t="n">
+        <v>46024</v>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>Nueva Imperial</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>Ataque incendiario</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr"/>
+      <c r="H319" t="inlineStr"/>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>Atentado incendiario en parcela destinada al acopio de áridos en el sector rural La Junta. Dos máquinas excavadoras resultaron destruidas (separadas aprox. 500 m). Fiscalía instruyó diligencias a BIPE y Laboratorio de Criminalística PDI; sin lienzos ni mensajes de atribución.</t>
+        </is>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>Actualización 2026 (OSINT triangulado).</t>
+        </is>
+      </c>
+      <c r="M319" t="inlineStr">
+        <is>
+          <t>Acoforag (02/01/2026) https://www.acoforag.cl/es/noticias/2026/1/2/primer-atentado-del-ano-en-la-araucania-deja-dos-maquinas-destruidas/ | Emol (02/01/2026) https://www.emol.com/noticias/Nacional/2026/01/02/1187436/atentado-incendiario--la-araucania.html | AraucaniaDiario (03/01/2026) https://araucaniadiario.cl/contenido/31745/con-un-atentado-en-imperial-parte-el-ano-la-violencia-rural-en-la-araucania | ADN Radio (02/01/2026) https://www.adnradio.cl/2026/01/02/reportan-el-primer-atentado-incendiario-del-ano-en-la-araucania-dos-excavadoras-destruidas-en-nueva-imperial/</t>
+        </is>
+      </c>
+      <c r="N319" t="inlineStr"/>
+      <c r="O319" t="inlineStr"/>
+      <c r="P319" t="inlineStr">
+        <is>
+          <t>Araucanía</t>
+        </is>
+      </c>
+      <c r="Q319" t="inlineStr"/>
+      <c r="R319" t="inlineStr"/>
+      <c r="S319" s="2" t="n">
+        <v>46024</v>
+      </c>
+      <c r="T319" t="n">
+        <v>2026</v>
+      </c>
+      <c r="U319" t="n">
+        <v>1</v>
+      </c>
+      <c r="V319" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="W319" t="inlineStr"/>
+      <c r="X319" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
